--- a/01_Dataset_Cleaned/MultiTaskModel_NiCrCoVFe_KW90_wt_pct_processed.xlsx
+++ b/01_Dataset_Cleaned/MultiTaskModel_NiCrCoVFe_KW90_wt_pct_processed.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH70"/>
+  <dimension ref="A1:AK70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,140 +466,155 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>microstructure_FCC</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>Mo</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>W</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Nb</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Si</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Mn</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>Cu</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>Al</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>Ta</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>Ti</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>Mg</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>Zr</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>Hf</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>microstructure_BCC</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>microstructure_other</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>a</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>delta_a</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>Tm</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>sigma_Tm</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>Hmix</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>sigma_Hmix</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>ideal_S</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>elec_nega</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>sigma_elec_nega</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>VEC</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
         <is>
           <t>sigma_VEC</t>
         </is>
       </c>
-      <c r="AG1" s="1" t="inlineStr">
+      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>bulk_modulus</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="AK1" s="1" t="inlineStr">
         <is>
           <t>sigma_bulk_modulus</t>
         </is>
@@ -625,7 +640,7 @@
         <v>7.767845016243125</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -670,42 +685,51 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y2" t="n">
         <v>1.251072492474754</v>
       </c>
-      <c r="W2" t="n">
+      <c r="Z2" t="n">
         <v>0.01132316357916038</v>
       </c>
-      <c r="X2" t="n">
+      <c r="AA2" t="n">
         <v>2020.292671282922</v>
       </c>
-      <c r="Y2" t="n">
+      <c r="AB2" t="n">
         <v>205.7934283676867</v>
       </c>
-      <c r="Z2" t="n">
+      <c r="AC2" t="n">
         <v>-5.516443531545978</v>
       </c>
-      <c r="AA2" t="n">
+      <c r="AD2" t="n">
         <v>2.064041000258821</v>
       </c>
-      <c r="AB2" t="n">
+      <c r="AE2" t="n">
         <v>1.217598447929058</v>
       </c>
-      <c r="AC2" t="n">
+      <c r="AF2" t="n">
         <v>1.743515563509088</v>
       </c>
-      <c r="AD2" t="n">
+      <c r="AG2" t="n">
         <v>0.1114247964942188</v>
       </c>
-      <c r="AE2" t="n">
+      <c r="AH2" t="n">
         <v>7.193380362804148</v>
       </c>
-      <c r="AF2" t="n">
+      <c r="AI2" t="n">
         <v>1.699905758635748</v>
       </c>
-      <c r="AG2" t="n">
+      <c r="AJ2" t="n">
         <v>166817738382.1842</v>
       </c>
-      <c r="AH2" t="n">
+      <c r="AK2" t="n">
         <v>9.073048220763292</v>
       </c>
     </row>
@@ -729,7 +753,7 @@
         <v>8.531827352427525</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -774,42 +798,51 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y3" t="n">
         <v>1.252297840591486</v>
       </c>
-      <c r="W3" t="n">
+      <c r="Z3" t="n">
         <v>0.01318711108193232</v>
       </c>
-      <c r="X3" t="n">
+      <c r="AA3" t="n">
         <v>2008.640051265481</v>
       </c>
-      <c r="Y3" t="n">
+      <c r="AB3" t="n">
         <v>207.1762109263312</v>
       </c>
-      <c r="Z3" t="n">
+      <c r="AC3" t="n">
         <v>-5.815272547684793</v>
       </c>
-      <c r="AA3" t="n">
+      <c r="AD3" t="n">
         <v>2.340208009323435</v>
       </c>
-      <c r="AB3" t="n">
+      <c r="AE3" t="n">
         <v>1.306683846321951</v>
       </c>
-      <c r="AC3" t="n">
+      <c r="AF3" t="n">
         <v>1.748905830928582</v>
       </c>
-      <c r="AD3" t="n">
+      <c r="AG3" t="n">
         <v>0.1123582623397218</v>
       </c>
-      <c r="AE3" t="n">
+      <c r="AH3" t="n">
         <v>7.24527671274984</v>
       </c>
-      <c r="AF3" t="n">
+      <c r="AI3" t="n">
         <v>1.706732342725193</v>
       </c>
-      <c r="AG3" t="n">
+      <c r="AJ3" t="n">
         <v>167354217183.8619</v>
       </c>
-      <c r="AH3" t="n">
+      <c r="AK3" t="n">
         <v>9.202029622671764</v>
       </c>
     </row>
@@ -833,7 +866,7 @@
         <v>8.832570284885314</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -878,42 +911,51 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y4" t="n">
         <v>1.254215398321727</v>
       </c>
-      <c r="W4" t="n">
+      <c r="Z4" t="n">
         <v>0.01547991313962267</v>
       </c>
-      <c r="X4" t="n">
+      <c r="AA4" t="n">
         <v>1997.584317814877</v>
       </c>
-      <c r="Y4" t="n">
+      <c r="AB4" t="n">
         <v>207.8573003513102</v>
       </c>
-      <c r="Z4" t="n">
+      <c r="AC4" t="n">
         <v>-6.304259497027645</v>
       </c>
-      <c r="AA4" t="n">
+      <c r="AD4" t="n">
         <v>2.689648839447073</v>
       </c>
-      <c r="AB4" t="n">
+      <c r="AE4" t="n">
         <v>1.385405035665202</v>
       </c>
-      <c r="AC4" t="n">
+      <c r="AF4" t="n">
         <v>1.753797313388916</v>
       </c>
-      <c r="AD4" t="n">
+      <c r="AG4" t="n">
         <v>0.1133054408778381</v>
       </c>
-      <c r="AE4" t="n">
+      <c r="AH4" t="n">
         <v>7.283888625055367</v>
       </c>
-      <c r="AF4" t="n">
+      <c r="AI4" t="n">
         <v>1.719279304524005</v>
       </c>
-      <c r="AG4" t="n">
+      <c r="AJ4" t="n">
         <v>167906383360.9133</v>
       </c>
-      <c r="AH4" t="n">
+      <c r="AK4" t="n">
         <v>9.325995141958378</v>
       </c>
     </row>
@@ -937,7 +979,7 @@
         <v>9.12907401442909</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -982,42 +1024,51 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y5" t="n">
         <v>1.256584147357157</v>
       </c>
-      <c r="W5" t="n">
+      <c r="Z5" t="n">
         <v>0.01776378368920067</v>
       </c>
-      <c r="X5" t="n">
+      <c r="AA5" t="n">
         <v>1984.721179577166</v>
       </c>
-      <c r="Y5" t="n">
+      <c r="AB5" t="n">
         <v>208.2448915693642</v>
       </c>
-      <c r="Z5" t="n">
+      <c r="AC5" t="n">
         <v>-7.000975538623851</v>
       </c>
-      <c r="AA5" t="n">
+      <c r="AD5" t="n">
         <v>3.097143090230744</v>
       </c>
-      <c r="AB5" t="n">
+      <c r="AE5" t="n">
         <v>1.450175079337468</v>
       </c>
-      <c r="AC5" t="n">
+      <c r="AF5" t="n">
         <v>1.75949200546835</v>
       </c>
-      <c r="AD5" t="n">
+      <c r="AG5" t="n">
         <v>0.1144701910633059</v>
       </c>
-      <c r="AE5" t="n">
+      <c r="AH5" t="n">
         <v>7.331736774587464</v>
       </c>
-      <c r="AF5" t="n">
+      <c r="AI5" t="n">
         <v>1.744366436004296</v>
       </c>
-      <c r="AG5" t="n">
+      <c r="AJ5" t="n">
         <v>168539429326.8154</v>
       </c>
-      <c r="AH5" t="n">
+      <c r="AK5" t="n">
         <v>9.428846799106466</v>
       </c>
     </row>
@@ -1041,7 +1092,7 @@
         <v>8.98860038928621</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -1086,42 +1137,51 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0</v>
+      </c>
+      <c r="X6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y6" t="n">
         <v>1.260073239061152</v>
       </c>
-      <c r="W6" t="n">
+      <c r="Z6" t="n">
         <v>0.02035449054129981</v>
       </c>
-      <c r="X6" t="n">
+      <c r="AA6" t="n">
         <v>1979.004201818456</v>
       </c>
-      <c r="Y6" t="n">
+      <c r="AB6" t="n">
         <v>207.8783665146321</v>
       </c>
-      <c r="Z6" t="n">
+      <c r="AC6" t="n">
         <v>-7.969338963516038</v>
       </c>
-      <c r="AA6" t="n">
+      <c r="AD6" t="n">
         <v>3.531723865435835</v>
       </c>
-      <c r="AB6" t="n">
+      <c r="AE6" t="n">
         <v>1.485749867212381</v>
       </c>
-      <c r="AC6" t="n">
+      <c r="AF6" t="n">
         <v>1.761001968188081</v>
       </c>
-      <c r="AD6" t="n">
+      <c r="AG6" t="n">
         <v>0.1156911169993609</v>
       </c>
-      <c r="AE6" t="n">
+      <c r="AH6" t="n">
         <v>7.312523827116924</v>
       </c>
-      <c r="AF6" t="n">
+      <c r="AI6" t="n">
         <v>1.779582997654238</v>
       </c>
-      <c r="AG6" t="n">
+      <c r="AJ6" t="n">
         <v>168869225975.9406</v>
       </c>
-      <c r="AH6" t="n">
+      <c r="AK6" t="n">
         <v>9.480778568236698</v>
       </c>
     </row>
@@ -1145,7 +1205,7 @@
         <v>9.59697489198577</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1190,42 +1250,51 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="n">
+        <v>0</v>
+      </c>
+      <c r="X7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y7" t="n">
         <v>1.249748223532098</v>
       </c>
-      <c r="W7" t="n">
+      <c r="Z7" t="n">
         <v>0.009644020742862457</v>
       </c>
-      <c r="X7" t="n">
+      <c r="AA7" t="n">
         <v>2002.504884257074</v>
       </c>
-      <c r="Y7" t="n">
+      <c r="AB7" t="n">
         <v>210.9821673601821</v>
       </c>
-      <c r="Z7" t="n">
+      <c r="AC7" t="n">
         <v>-5.754335976318536</v>
       </c>
-      <c r="AA7" t="n">
+      <c r="AD7" t="n">
         <v>2.048245739232142</v>
       </c>
-      <c r="AB7" t="n">
+      <c r="AE7" t="n">
         <v>1.206927237284328</v>
       </c>
-      <c r="AC7" t="n">
+      <c r="AF7" t="n">
         <v>1.753450503824585</v>
       </c>
-      <c r="AD7" t="n">
+      <c r="AG7" t="n">
         <v>0.1142756521485057</v>
       </c>
-      <c r="AE7" t="n">
+      <c r="AH7" t="n">
         <v>7.368229917354678</v>
       </c>
-      <c r="AF7" t="n">
+      <c r="AI7" t="n">
         <v>1.768462857063601</v>
       </c>
-      <c r="AG7" t="n">
+      <c r="AJ7" t="n">
         <v>167413532236.587</v>
       </c>
-      <c r="AH7" t="n">
+      <c r="AK7" t="n">
         <v>9.161991081860641</v>
       </c>
     </row>
@@ -1249,7 +1318,7 @@
         <v>10.44248353676205</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1294,42 +1363,51 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y8" t="n">
         <v>1.250682899837048</v>
       </c>
-      <c r="W8" t="n">
+      <c r="Z8" t="n">
         <v>0.01138502794134365</v>
       </c>
-      <c r="X8" t="n">
+      <c r="AA8" t="n">
         <v>1999.012904279257</v>
       </c>
-      <c r="Y8" t="n">
+      <c r="AB8" t="n">
         <v>210.2103437786538</v>
       </c>
-      <c r="Z8" t="n">
+      <c r="AC8" t="n">
         <v>-5.840201412482917</v>
       </c>
-      <c r="AA8" t="n">
+      <c r="AD8" t="n">
         <v>2.255078352006217</v>
       </c>
-      <c r="AB8" t="n">
+      <c r="AE8" t="n">
         <v>1.281142172289257</v>
       </c>
-      <c r="AC8" t="n">
+      <c r="AF8" t="n">
         <v>1.754525093735817</v>
       </c>
-      <c r="AD8" t="n">
+      <c r="AG8" t="n">
         <v>0.1138299269528543</v>
       </c>
-      <c r="AE8" t="n">
+      <c r="AH8" t="n">
         <v>7.359475454567685</v>
       </c>
-      <c r="AF8" t="n">
+      <c r="AI8" t="n">
         <v>1.753175406035544</v>
       </c>
-      <c r="AG8" t="n">
+      <c r="AJ8" t="n">
         <v>167561526371.874</v>
       </c>
-      <c r="AH8" t="n">
+      <c r="AK8" t="n">
         <v>9.157064326107843</v>
       </c>
     </row>
@@ -1353,7 +1431,7 @@
         <v>11.44879148492491</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1398,42 +1476,51 @@
         <v>0</v>
       </c>
       <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0</v>
+      </c>
+      <c r="X9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y9" t="n">
         <v>1.25204597212078</v>
       </c>
-      <c r="W9" t="n">
+      <c r="Z9" t="n">
         <v>0.01349359687847006</v>
       </c>
-      <c r="X9" t="n">
+      <c r="AA9" t="n">
         <v>1991.591997115047</v>
       </c>
-      <c r="Y9" t="n">
+      <c r="AB9" t="n">
         <v>209.7838816719681</v>
       </c>
-      <c r="Z9" t="n">
+      <c r="AC9" t="n">
         <v>-6.096090088025558</v>
       </c>
-      <c r="AA9" t="n">
+      <c r="AD9" t="n">
         <v>2.543154383457898</v>
       </c>
-      <c r="AB9" t="n">
+      <c r="AE9" t="n">
         <v>1.367016795085457</v>
       </c>
-      <c r="AC9" t="n">
+      <c r="AF9" t="n">
         <v>1.757483936110728</v>
       </c>
-      <c r="AD9" t="n">
+      <c r="AG9" t="n">
         <v>0.1138117164137168</v>
       </c>
-      <c r="AE9" t="n">
+      <c r="AH9" t="n">
         <v>7.373190335375589</v>
       </c>
-      <c r="AF9" t="n">
+      <c r="AI9" t="n">
         <v>1.748236841504509</v>
       </c>
-      <c r="AG9" t="n">
+      <c r="AJ9" t="n">
         <v>167883955871.9608</v>
       </c>
-      <c r="AH9" t="n">
+      <c r="AK9" t="n">
         <v>9.182416515634683</v>
       </c>
     </row>
@@ -1457,7 +1544,7 @@
         <v>11.72612339714884</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1502,42 +1589,51 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="n">
+        <v>0</v>
+      </c>
+      <c r="X10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y10" t="n">
         <v>1.254354256452418</v>
       </c>
-      <c r="W10" t="n">
+      <c r="Z10" t="n">
         <v>0.01619639892725755</v>
       </c>
-      <c r="X10" t="n">
+      <c r="AA10" t="n">
         <v>1984.592349521503</v>
       </c>
-      <c r="Y10" t="n">
+      <c r="AB10" t="n">
         <v>209.2860952360415</v>
       </c>
-      <c r="Z10" t="n">
+      <c r="AC10" t="n">
         <v>-6.650082570734311</v>
       </c>
-      <c r="AA10" t="n">
+      <c r="AD10" t="n">
         <v>2.940788389292122</v>
       </c>
-      <c r="AB10" t="n">
+      <c r="AE10" t="n">
         <v>1.449839602760027</v>
       </c>
-      <c r="AC10" t="n">
+      <c r="AF10" t="n">
         <v>1.760024214329462</v>
       </c>
-      <c r="AD10" t="n">
+      <c r="AG10" t="n">
         <v>0.1142990450422946</v>
       </c>
-      <c r="AE10" t="n">
+      <c r="AH10" t="n">
         <v>7.374529338048931</v>
       </c>
-      <c r="AF10" t="n">
+      <c r="AI10" t="n">
         <v>1.758660135579046</v>
       </c>
-      <c r="AG10" t="n">
+      <c r="AJ10" t="n">
         <v>168248365326.025</v>
       </c>
-      <c r="AH10" t="n">
+      <c r="AK10" t="n">
         <v>9.243056206590497</v>
       </c>
     </row>
@@ -1561,7 +1657,7 @@
         <v>12.12398801364105</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1606,42 +1702,51 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0</v>
+      </c>
+      <c r="X11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y11" t="n">
         <v>1.257044904260445</v>
       </c>
-      <c r="W11" t="n">
+      <c r="Z11" t="n">
         <v>0.01867598169285261</v>
       </c>
-      <c r="X11" t="n">
+      <c r="AA11" t="n">
         <v>1979.461609519089</v>
       </c>
-      <c r="Y11" t="n">
+      <c r="AB11" t="n">
         <v>208.5822856277061</v>
       </c>
-      <c r="Z11" t="n">
+      <c r="AC11" t="n">
         <v>-7.330115659685562</v>
       </c>
-      <c r="AA11" t="n">
+      <c r="AD11" t="n">
         <v>3.333221921648351</v>
       </c>
-      <c r="AB11" t="n">
+      <c r="AE11" t="n">
         <v>1.508891615012723</v>
       </c>
-      <c r="AC11" t="n">
+      <c r="AF11" t="n">
         <v>1.761380257998779</v>
       </c>
-      <c r="AD11" t="n">
+      <c r="AG11" t="n">
         <v>0.1148768798958972</v>
       </c>
-      <c r="AE11" t="n">
+      <c r="AH11" t="n">
         <v>7.357004941307781</v>
       </c>
-      <c r="AF11" t="n">
+      <c r="AI11" t="n">
         <v>1.776387044378429</v>
       </c>
-      <c r="AG11" t="n">
+      <c r="AJ11" t="n">
         <v>168510017272.425</v>
       </c>
-      <c r="AH11" t="n">
+      <c r="AK11" t="n">
         <v>9.267143953344535</v>
       </c>
     </row>
@@ -1665,7 +1770,7 @@
         <v>11.92052817021859</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1710,42 +1815,51 @@
         <v>0</v>
       </c>
       <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="n">
+        <v>0</v>
+      </c>
+      <c r="X12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y12" t="n">
         <v>1.261069874768217</v>
       </c>
-      <c r="W12" t="n">
+      <c r="Z12" t="n">
         <v>0.02143020625812083</v>
       </c>
-      <c r="X12" t="n">
+      <c r="AA12" t="n">
         <v>1977.505503848415</v>
       </c>
-      <c r="Y12" t="n">
+      <c r="AB12" t="n">
         <v>207.9624293533624</v>
       </c>
-      <c r="Z12" t="n">
+      <c r="AC12" t="n">
         <v>-8.37488691576408</v>
       </c>
-      <c r="AA12" t="n">
+      <c r="AD12" t="n">
         <v>3.790287746584947</v>
       </c>
-      <c r="AB12" t="n">
+      <c r="AE12" t="n">
         <v>1.545255899501289</v>
       </c>
-      <c r="AC12" t="n">
+      <c r="AF12" t="n">
         <v>1.76065032392472</v>
       </c>
-      <c r="AD12" t="n">
+      <c r="AG12" t="n">
         <v>0.11609511957973</v>
       </c>
-      <c r="AE12" t="n">
+      <c r="AH12" t="n">
         <v>7.301006053838056</v>
       </c>
-      <c r="AF12" t="n">
+      <c r="AI12" t="n">
         <v>1.81339403040386</v>
       </c>
-      <c r="AG12" t="n">
+      <c r="AJ12" t="n">
         <v>168670021595.3336</v>
       </c>
-      <c r="AH12" t="n">
+      <c r="AK12" t="n">
         <v>9.302212270863867</v>
       </c>
     </row>
@@ -1769,7 +1883,7 @@
         <v>11.63184817654835</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1814,42 +1928,51 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="n">
+        <v>0</v>
+      </c>
+      <c r="X13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y13" t="n">
         <v>1.265504849910747</v>
       </c>
-      <c r="W13" t="n">
+      <c r="Z13" t="n">
         <v>0.02358176666394148</v>
       </c>
-      <c r="X13" t="n">
+      <c r="AA13" t="n">
         <v>1980.216397384033</v>
       </c>
-      <c r="Y13" t="n">
+      <c r="AB13" t="n">
         <v>207.1166204294396</v>
       </c>
-      <c r="Z13" t="n">
+      <c r="AC13" t="n">
         <v>-9.379034309166544</v>
       </c>
-      <c r="AA13" t="n">
+      <c r="AD13" t="n">
         <v>4.096578049592212</v>
       </c>
-      <c r="AB13" t="n">
+      <c r="AE13" t="n">
         <v>1.539591366542089</v>
       </c>
-      <c r="AC13" t="n">
+      <c r="AF13" t="n">
         <v>1.757250387803165</v>
       </c>
-      <c r="AD13" t="n">
+      <c r="AG13" t="n">
         <v>0.117136400746575</v>
       </c>
-      <c r="AE13" t="n">
+      <c r="AH13" t="n">
         <v>7.203007063855623</v>
       </c>
-      <c r="AF13" t="n">
+      <c r="AI13" t="n">
         <v>1.844394126748835</v>
       </c>
-      <c r="AG13" t="n">
+      <c r="AJ13" t="n">
         <v>168620026047.5113</v>
       </c>
-      <c r="AH13" t="n">
+      <c r="AK13" t="n">
         <v>9.31105027755623</v>
       </c>
     </row>
@@ -1873,7 +1996,7 @@
         <v>11.79752106055206</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1918,42 +2041,51 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="n">
+        <v>0</v>
+      </c>
+      <c r="X14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y14" t="n">
         <v>1.248735573694456</v>
       </c>
-      <c r="W14" t="n">
+      <c r="Z14" t="n">
         <v>0.008455367487755478</v>
       </c>
-      <c r="X14" t="n">
+      <c r="AA14" t="n">
         <v>1970.742220335608</v>
       </c>
-      <c r="Y14" t="n">
+      <c r="AB14" t="n">
         <v>215.3227120186911</v>
       </c>
-      <c r="Z14" t="n">
+      <c r="AC14" t="n">
         <v>-6.072841082197995</v>
       </c>
-      <c r="AA14" t="n">
+      <c r="AD14" t="n">
         <v>2.10044884184232</v>
       </c>
-      <c r="AB14" t="n">
+      <c r="AE14" t="n">
         <v>1.209493918653552</v>
       </c>
-      <c r="AC14" t="n">
+      <c r="AF14" t="n">
         <v>1.770711513640876</v>
       </c>
-      <c r="AD14" t="n">
+      <c r="AG14" t="n">
         <v>0.1169097137813461</v>
       </c>
-      <c r="AE14" t="n">
+      <c r="AH14" t="n">
         <v>7.647463122152457</v>
       </c>
-      <c r="AF14" t="n">
+      <c r="AI14" t="n">
         <v>1.832678731940772</v>
       </c>
-      <c r="AG14" t="n">
+      <c r="AJ14" t="n">
         <v>168625468647.9962</v>
       </c>
-      <c r="AH14" t="n">
+      <c r="AK14" t="n">
         <v>9.300863142589863</v>
       </c>
     </row>
@@ -1977,7 +2109,7 @@
         <v>13.01845988585013</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -2022,42 +2154,51 @@
         <v>0</v>
       </c>
       <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="n">
+        <v>0</v>
+      </c>
+      <c r="X15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y15" t="n">
         <v>1.249381824771407</v>
       </c>
-      <c r="W15" t="n">
+      <c r="Z15" t="n">
         <v>0.009940293474107855</v>
       </c>
-      <c r="X15" t="n">
+      <c r="AA15" t="n">
         <v>1969.978932738013</v>
       </c>
-      <c r="Y15" t="n">
+      <c r="AB15" t="n">
         <v>213.8395675852081</v>
       </c>
-      <c r="Z15" t="n">
+      <c r="AC15" t="n">
         <v>-6.062705146836036</v>
       </c>
-      <c r="AA15" t="n">
+      <c r="AD15" t="n">
         <v>2.283245810352931</v>
       </c>
-      <c r="AB15" t="n">
+      <c r="AE15" t="n">
         <v>1.279132740257996</v>
       </c>
-      <c r="AC15" t="n">
+      <c r="AF15" t="n">
         <v>1.77031134705648</v>
       </c>
-      <c r="AD15" t="n">
+      <c r="AG15" t="n">
         <v>0.1159706941913822</v>
       </c>
-      <c r="AE15" t="n">
+      <c r="AH15" t="n">
         <v>7.617851245163173</v>
       </c>
-      <c r="AF15" t="n">
+      <c r="AI15" t="n">
         <v>1.811113668438712</v>
       </c>
-      <c r="AG15" t="n">
+      <c r="AJ15" t="n">
         <v>168617464573.7857</v>
       </c>
-      <c r="AH15" t="n">
+      <c r="AK15" t="n">
         <v>9.234906982132689</v>
       </c>
     </row>
@@ -2081,7 +2222,7 @@
         <v>14.64948165632202</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -2126,42 +2267,51 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="n">
+        <v>0</v>
+      </c>
+      <c r="X16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y16" t="n">
         <v>1.250512910520294</v>
       </c>
-      <c r="W16" t="n">
+      <c r="Z16" t="n">
         <v>0.01209452267077388</v>
       </c>
-      <c r="X16" t="n">
+      <c r="AA16" t="n">
         <v>1970.167863195218</v>
       </c>
-      <c r="Y16" t="n">
+      <c r="AB16" t="n">
         <v>212.0201455881001</v>
       </c>
-      <c r="Z16" t="n">
+      <c r="AC16" t="n">
         <v>-6.161192529446169</v>
       </c>
-      <c r="AA16" t="n">
+      <c r="AD16" t="n">
         <v>2.530529184616697</v>
       </c>
-      <c r="AB16" t="n">
+      <c r="AE16" t="n">
         <v>1.35630682374197</v>
       </c>
-      <c r="AC16" t="n">
+      <c r="AF16" t="n">
         <v>1.769039128376863</v>
       </c>
-      <c r="AD16" t="n">
+      <c r="AG16" t="n">
         <v>0.1149508399501432</v>
       </c>
-      <c r="AE16" t="n">
+      <c r="AH16" t="n">
         <v>7.567660992852697</v>
       </c>
-      <c r="AF16" t="n">
+      <c r="AI16" t="n">
         <v>1.790173477543148</v>
       </c>
-      <c r="AG16" t="n">
+      <c r="AJ16" t="n">
         <v>168542871488.1789</v>
       </c>
-      <c r="AH16" t="n">
+      <c r="AK16" t="n">
         <v>9.136485527439163</v>
       </c>
     </row>
@@ -2185,7 +2335,7 @@
         <v>15.56857863927077</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -2230,42 +2380,51 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="n">
+        <v>0</v>
+      </c>
+      <c r="X17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y17" t="n">
         <v>1.251980738451149</v>
       </c>
-      <c r="W17" t="n">
+      <c r="Z17" t="n">
         <v>0.01420899851018646</v>
       </c>
-      <c r="X17" t="n">
+      <c r="AA17" t="n">
         <v>1969.304532566868</v>
       </c>
-      <c r="Y17" t="n">
+      <c r="AB17" t="n">
         <v>210.4860801366061</v>
       </c>
-      <c r="Z17" t="n">
+      <c r="AC17" t="n">
         <v>-6.380010873345669</v>
       </c>
-      <c r="AA17" t="n">
+      <c r="AD17" t="n">
         <v>2.791876065373955</v>
       </c>
-      <c r="AB17" t="n">
+      <c r="AE17" t="n">
         <v>1.428708746580817</v>
       </c>
-      <c r="AC17" t="n">
+      <c r="AF17" t="n">
         <v>1.76841175539935</v>
       </c>
-      <c r="AD17" t="n">
+      <c r="AG17" t="n">
         <v>0.1143460794435636</v>
       </c>
-      <c r="AE17" t="n">
+      <c r="AH17" t="n">
         <v>7.526762453559921</v>
       </c>
-      <c r="AF17" t="n">
+      <c r="AI17" t="n">
         <v>1.777177133869279</v>
       </c>
-      <c r="AG17" t="n">
+      <c r="AJ17" t="n">
         <v>168572588858.0159</v>
       </c>
-      <c r="AH17" t="n">
+      <c r="AK17" t="n">
         <v>9.091640803975903</v>
       </c>
     </row>
@@ -2289,7 +2448,7 @@
         <v>16.26584424563948</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -2334,42 +2493,51 @@
         <v>0</v>
       </c>
       <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="n">
+        <v>0</v>
+      </c>
+      <c r="X18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y18" t="n">
         <v>1.254165923387254</v>
       </c>
-      <c r="W18" t="n">
+      <c r="Z18" t="n">
         <v>0.01671379836081587</v>
       </c>
-      <c r="X18" t="n">
+      <c r="AA18" t="n">
         <v>1965.898606465772</v>
       </c>
-      <c r="Y18" t="n">
+      <c r="AB18" t="n">
         <v>209.0453901910768</v>
       </c>
-      <c r="Z18" t="n">
+      <c r="AC18" t="n">
         <v>-6.851139852901313</v>
       </c>
-      <c r="AA18" t="n">
+      <c r="AD18" t="n">
         <v>3.146394914713846</v>
       </c>
-      <c r="AB18" t="n">
+      <c r="AE18" t="n">
         <v>1.502980461177481</v>
       </c>
-      <c r="AC18" t="n">
+      <c r="AF18" t="n">
         <v>1.768920256719743</v>
       </c>
-      <c r="AD18" t="n">
+      <c r="AG18" t="n">
         <v>0.1142315026760287</v>
       </c>
-      <c r="AE18" t="n">
+      <c r="AH18" t="n">
         <v>7.497004906583419</v>
       </c>
-      <c r="AF18" t="n">
+      <c r="AI18" t="n">
         <v>1.778198991823631</v>
       </c>
-      <c r="AG18" t="n">
+      <c r="AJ18" t="n">
         <v>168740018127.9382</v>
       </c>
-      <c r="AH18" t="n">
+      <c r="AK18" t="n">
         <v>9.078131093309672</v>
       </c>
     </row>
@@ -2393,7 +2561,7 @@
         <v>16.29325317414552</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2438,42 +2606,51 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="n">
+        <v>0</v>
+      </c>
+      <c r="X19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y19" t="n">
         <v>1.257247144232306</v>
       </c>
-      <c r="W19" t="n">
+      <c r="Z19" t="n">
         <v>0.01941994671374451</v>
       </c>
-      <c r="X19" t="n">
+      <c r="AA19" t="n">
         <v>1966.817351634989</v>
       </c>
-      <c r="Y19" t="n">
+      <c r="AB19" t="n">
         <v>208.1291140144485</v>
       </c>
-      <c r="Z19" t="n">
+      <c r="AC19" t="n">
         <v>-7.598363780901872</v>
       </c>
-      <c r="AA19" t="n">
+      <c r="AD19" t="n">
         <v>3.544549074419397</v>
       </c>
-      <c r="AB19" t="n">
+      <c r="AE19" t="n">
         <v>1.555413870432862</v>
       </c>
-      <c r="AC19" t="n">
+      <c r="AF19" t="n">
         <v>1.766957260277624</v>
       </c>
-      <c r="AD19" t="n">
+      <c r="AG19" t="n">
         <v>0.114823052766389</v>
       </c>
-      <c r="AE19" t="n">
+      <c r="AH19" t="n">
         <v>7.429435154646474</v>
       </c>
-      <c r="AF19" t="n">
+      <c r="AI19" t="n">
         <v>1.798334896199592</v>
       </c>
-      <c r="AG19" t="n">
+      <c r="AJ19" t="n">
         <v>168748769505.8205</v>
       </c>
-      <c r="AH19" t="n">
+      <c r="AK19" t="n">
         <v>9.078458773051679</v>
       </c>
     </row>
@@ -2497,7 +2674,7 @@
         <v>16.0203257316858</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2542,42 +2719,51 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="n">
+        <v>0</v>
+      </c>
+      <c r="X20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y20" t="n">
         <v>1.261173042554518</v>
       </c>
-      <c r="W20" t="n">
+      <c r="Z20" t="n">
         <v>0.02196254752544786</v>
       </c>
-      <c r="X20" t="n">
+      <c r="AA20" t="n">
         <v>1972.261712522769</v>
       </c>
-      <c r="Y20" t="n">
+      <c r="AB20" t="n">
         <v>207.1342371054688</v>
       </c>
-      <c r="Z20" t="n">
+      <c r="AC20" t="n">
         <v>-8.440524333217541</v>
       </c>
-      <c r="AA20" t="n">
+      <c r="AD20" t="n">
         <v>3.890969664897886</v>
       </c>
-      <c r="AB20" t="n">
+      <c r="AE20" t="n">
         <v>1.579436827269226</v>
       </c>
-      <c r="AC20" t="n">
+      <c r="AF20" t="n">
         <v>1.762262617344371</v>
       </c>
-      <c r="AD20" t="n">
+      <c r="AG20" t="n">
         <v>0.1154964310313785</v>
       </c>
-      <c r="AE20" t="n">
+      <c r="AH20" t="n">
         <v>7.314320896576687</v>
       </c>
-      <c r="AF20" t="n">
+      <c r="AI20" t="n">
         <v>1.818408915101823</v>
       </c>
-      <c r="AG20" t="n">
+      <c r="AJ20" t="n">
         <v>168578602401.188</v>
       </c>
-      <c r="AH20" t="n">
+      <c r="AK20" t="n">
         <v>9.069945258978803</v>
       </c>
     </row>
@@ -2601,7 +2787,7 @@
         <v>15.12274352922172</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2646,42 +2832,51 @@
         <v>0</v>
       </c>
       <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="n">
+        <v>0</v>
+      </c>
+      <c r="X21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y21" t="n">
         <v>1.265746843112471</v>
       </c>
-      <c r="W21" t="n">
+      <c r="Z21" t="n">
         <v>0.02408805196615754</v>
       </c>
-      <c r="X21" t="n">
+      <c r="AA21" t="n">
         <v>1978.436334685679</v>
       </c>
-      <c r="Y21" t="n">
+      <c r="AB21" t="n">
         <v>206.762741122879</v>
       </c>
-      <c r="Z21" t="n">
+      <c r="AC21" t="n">
         <v>-9.464908562124085</v>
       </c>
-      <c r="AA21" t="n">
+      <c r="AD21" t="n">
         <v>4.201692688246431</v>
       </c>
-      <c r="AB21" t="n">
+      <c r="AE21" t="n">
         <v>1.573659078462868</v>
       </c>
-      <c r="AC21" t="n">
+      <c r="AF21" t="n">
         <v>1.757170424003639</v>
       </c>
-      <c r="AD21" t="n">
+      <c r="AG21" t="n">
         <v>0.1168541448223383</v>
       </c>
-      <c r="AE21" t="n">
+      <c r="AH21" t="n">
         <v>7.197007690688803</v>
       </c>
-      <c r="AF21" t="n">
+      <c r="AI21" t="n">
         <v>1.857468807048892</v>
       </c>
-      <c r="AG21" t="n">
+      <c r="AJ21" t="n">
         <v>168400028429.4451</v>
       </c>
-      <c r="AH21" t="n">
+      <c r="AK21" t="n">
         <v>9.09065850767886</v>
       </c>
     </row>
@@ -2705,7 +2900,7 @@
         <v>13.9052463012162</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2750,42 +2945,51 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="n">
+        <v>0</v>
+      </c>
+      <c r="X22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y22" t="n">
         <v>1.27259475308624</v>
       </c>
-      <c r="W22" t="n">
+      <c r="Z22" t="n">
         <v>0.02603955659247899</v>
       </c>
-      <c r="X22" t="n">
+      <c r="AA22" t="n">
         <v>1999.022142913066</v>
       </c>
-      <c r="Y22" t="n">
+      <c r="AB22" t="n">
         <v>204.6881819420549</v>
       </c>
-      <c r="Z22" t="n">
+      <c r="AC22" t="n">
         <v>-10.37334569444428</v>
       </c>
-      <c r="AA22" t="n">
+      <c r="AD22" t="n">
         <v>4.272669695005842</v>
       </c>
-      <c r="AB22" t="n">
+      <c r="AE22" t="n">
         <v>1.50936575210797</v>
       </c>
-      <c r="AC22" t="n">
+      <c r="AF22" t="n">
         <v>1.743430576354741</v>
       </c>
-      <c r="AD22" t="n">
+      <c r="AG22" t="n">
         <v>0.1171725291581768</v>
       </c>
-      <c r="AE22" t="n">
+      <c r="AH22" t="n">
         <v>6.936251293394034</v>
       </c>
-      <c r="AF22" t="n">
+      <c r="AI22" t="n">
         <v>1.87616865217412</v>
       </c>
-      <c r="AG22" t="n">
+      <c r="AJ22" t="n">
         <v>167578853772.712</v>
       </c>
-      <c r="AH22" t="n">
+      <c r="AK22" t="n">
         <v>8.979190126242868</v>
       </c>
     </row>
@@ -2809,7 +3013,7 @@
         <v>15.50167131086114</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2854,42 +3058,51 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="n">
+        <v>0</v>
+      </c>
+      <c r="X23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y23" t="n">
         <v>1.248369556260608</v>
       </c>
-      <c r="W23" t="n">
+      <c r="Z23" t="n">
         <v>0.008899647780157406</v>
       </c>
-      <c r="X23" t="n">
+      <c r="AA23" t="n">
         <v>1931.408553850013</v>
       </c>
-      <c r="Y23" t="n">
+      <c r="AB23" t="n">
         <v>212.3556137291158</v>
       </c>
-      <c r="Z23" t="n">
+      <c r="AC23" t="n">
         <v>-6.152378784018371</v>
       </c>
-      <c r="AA23" t="n">
+      <c r="AD23" t="n">
         <v>2.291984021204843</v>
       </c>
-      <c r="AB23" t="n">
+      <c r="AE23" t="n">
         <v>1.259533141470659</v>
       </c>
-      <c r="AC23" t="n">
+      <c r="AF23" t="n">
         <v>1.79117354418469</v>
       </c>
-      <c r="AD23" t="n">
+      <c r="AG23" t="n">
         <v>0.1156877440270723</v>
       </c>
-      <c r="AE23" t="n">
+      <c r="AH23" t="n">
         <v>7.950234419987628</v>
       </c>
-      <c r="AF23" t="n">
+      <c r="AI23" t="n">
         <v>1.833277428711062</v>
       </c>
-      <c r="AG23" t="n">
+      <c r="AJ23" t="n">
         <v>170113952096.099</v>
       </c>
-      <c r="AH23" t="n">
+      <c r="AK23" t="n">
         <v>9.19762454278159</v>
       </c>
     </row>
@@ -2913,7 +3126,7 @@
         <v>17.04443551406089</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2958,42 +3171,51 @@
         <v>0</v>
       </c>
       <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="n">
+        <v>0</v>
+      </c>
+      <c r="X24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y24" t="n">
         <v>1.249059299126009</v>
       </c>
-      <c r="W24" t="n">
+      <c r="Z24" t="n">
         <v>0.01038712959910648</v>
       </c>
-      <c r="X24" t="n">
+      <c r="AA24" t="n">
         <v>1939.341004007715</v>
       </c>
-      <c r="Y24" t="n">
+      <c r="AB24" t="n">
         <v>211.4734670828537</v>
       </c>
-      <c r="Z24" t="n">
+      <c r="AC24" t="n">
         <v>-6.145316217978284</v>
       </c>
-      <c r="AA24" t="n">
+      <c r="AD24" t="n">
         <v>2.456426811541782</v>
       </c>
-      <c r="AB24" t="n">
+      <c r="AE24" t="n">
         <v>1.321501960472932</v>
       </c>
-      <c r="AC24" t="n">
+      <c r="AF24" t="n">
         <v>1.785893171435195</v>
       </c>
-      <c r="AD24" t="n">
+      <c r="AG24" t="n">
         <v>0.114933821469947</v>
       </c>
-      <c r="AE24" t="n">
+      <c r="AH24" t="n">
         <v>7.842793184858055</v>
       </c>
-      <c r="AF24" t="n">
+      <c r="AI24" t="n">
         <v>1.812929259893487</v>
       </c>
-      <c r="AG24" t="n">
+      <c r="AJ24" t="n">
         <v>169694386416.9743</v>
       </c>
-      <c r="AH24" t="n">
+      <c r="AK24" t="n">
         <v>9.111909907480779</v>
       </c>
     </row>
@@ -3017,7 +3239,7 @@
         <v>19.29273764466195</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -3062,42 +3284,51 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="n">
+        <v>0</v>
+      </c>
+      <c r="X25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y25" t="n">
         <v>1.249826430759371</v>
       </c>
-      <c r="W25" t="n">
+      <c r="Z25" t="n">
         <v>0.01194259755264854</v>
       </c>
-      <c r="X25" t="n">
+      <c r="AA25" t="n">
         <v>1939.799906017297</v>
       </c>
-      <c r="Y25" t="n">
+      <c r="AB25" t="n">
         <v>209.2578948012149</v>
       </c>
-      <c r="Z25" t="n">
+      <c r="AC25" t="n">
         <v>-6.135234320247221</v>
       </c>
-      <c r="AA25" t="n">
+      <c r="AD25" t="n">
         <v>2.635717283993801</v>
       </c>
-      <c r="AB25" t="n">
+      <c r="AE25" t="n">
         <v>1.388698701439503</v>
       </c>
-      <c r="AC25" t="n">
+      <c r="AF25" t="n">
         <v>1.784408476209509</v>
       </c>
-      <c r="AD25" t="n">
+      <c r="AG25" t="n">
         <v>0.113562775309765</v>
       </c>
-      <c r="AE25" t="n">
+      <c r="AH25" t="n">
         <v>7.787889390313915</v>
       </c>
-      <c r="AF25" t="n">
+      <c r="AI25" t="n">
         <v>1.785025516242222</v>
       </c>
-      <c r="AG25" t="n">
+      <c r="AJ25" t="n">
         <v>169566192505.1497</v>
       </c>
-      <c r="AH25" t="n">
+      <c r="AK25" t="n">
         <v>8.984402751338552</v>
       </c>
     </row>
@@ -3121,7 +3352,7 @@
         <v>20.62754834214647</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -3166,42 +3397,51 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="n">
+        <v>0</v>
+      </c>
+      <c r="X26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y26" t="n">
         <v>1.251381406432108</v>
       </c>
-      <c r="W26" t="n">
+      <c r="Z26" t="n">
         <v>0.01430366893426542</v>
       </c>
-      <c r="X26" t="n">
+      <c r="AA26" t="n">
         <v>1940.810823474454</v>
       </c>
-      <c r="Y26" t="n">
+      <c r="AB26" t="n">
         <v>207.6084120930632</v>
       </c>
-      <c r="Z26" t="n">
+      <c r="AC26" t="n">
         <v>-6.416729359877402</v>
       </c>
-      <c r="AA26" t="n">
+      <c r="AD26" t="n">
         <v>2.926898889591333</v>
       </c>
-      <c r="AB26" t="n">
+      <c r="AE26" t="n">
         <v>1.460928253754858</v>
       </c>
-      <c r="AC26" t="n">
+      <c r="AF26" t="n">
         <v>1.782594996464943</v>
       </c>
-      <c r="AD26" t="n">
+      <c r="AG26" t="n">
         <v>0.1129846933492906</v>
       </c>
-      <c r="AE26" t="n">
+      <c r="AH26" t="n">
         <v>7.726732211178908</v>
       </c>
-      <c r="AF26" t="n">
+      <c r="AI26" t="n">
         <v>1.776203760440881</v>
       </c>
-      <c r="AG26" t="n">
+      <c r="AJ26" t="n">
         <v>169479071552.7612</v>
       </c>
-      <c r="AH26" t="n">
+      <c r="AK26" t="n">
         <v>8.906778949162248</v>
       </c>
     </row>
@@ -3225,7 +3465,7 @@
         <v>21.20301479215569</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -3270,42 +3510,51 @@
         <v>0</v>
       </c>
       <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="n">
+        <v>0</v>
+      </c>
+      <c r="X27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y27" t="n">
         <v>1.253783705446328</v>
       </c>
-      <c r="W27" t="n">
+      <c r="Z27" t="n">
         <v>0.01703014313700409</v>
       </c>
-      <c r="X27" t="n">
+      <c r="AA27" t="n">
         <v>1947.414978402</v>
       </c>
-      <c r="Y27" t="n">
+      <c r="AB27" t="n">
         <v>206.7289586929976</v>
       </c>
-      <c r="Z27" t="n">
+      <c r="AC27" t="n">
         <v>-6.89840833887527</v>
       </c>
-      <c r="AA27" t="n">
+      <c r="AD27" t="n">
         <v>3.255707749768642</v>
       </c>
-      <c r="AB27" t="n">
+      <c r="AE27" t="n">
         <v>1.52459999598744</v>
       </c>
-      <c r="AC27" t="n">
+      <c r="AF27" t="n">
         <v>1.777617901346376</v>
       </c>
-      <c r="AD27" t="n">
+      <c r="AG27" t="n">
         <v>0.1130429462854347</v>
       </c>
-      <c r="AE27" t="n">
+      <c r="AH27" t="n">
         <v>7.613619004065997</v>
       </c>
-      <c r="AF27" t="n">
+      <c r="AI27" t="n">
         <v>1.777643049410407</v>
       </c>
-      <c r="AG27" t="n">
+      <c r="AJ27" t="n">
         <v>169199219723.1132</v>
       </c>
-      <c r="AH27" t="n">
+      <c r="AK27" t="n">
         <v>8.856514852858579</v>
       </c>
     </row>
@@ -3329,7 +3578,7 @@
         <v>22.032519502915</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -3374,42 +3623,51 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="n">
+        <v>0</v>
+      </c>
+      <c r="X28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y28" t="n">
         <v>1.256647896446051</v>
       </c>
-      <c r="W28" t="n">
+      <c r="Z28" t="n">
         <v>0.01963272272035173</v>
       </c>
-      <c r="X28" t="n">
+      <c r="AA28" t="n">
         <v>1951.337491491941</v>
       </c>
-      <c r="Y28" t="n">
+      <c r="AB28" t="n">
         <v>205.7427027466996</v>
       </c>
-      <c r="Z28" t="n">
+      <c r="AC28" t="n">
         <v>-7.543118081700705</v>
       </c>
-      <c r="AA28" t="n">
+      <c r="AD28" t="n">
         <v>3.594644353929029</v>
       </c>
-      <c r="AB28" t="n">
+      <c r="AE28" t="n">
         <v>1.569871391171721</v>
       </c>
-      <c r="AC28" t="n">
+      <c r="AF28" t="n">
         <v>1.773870328262228</v>
       </c>
-      <c r="AD28" t="n">
+      <c r="AG28" t="n">
         <v>0.1133601334503783</v>
       </c>
-      <c r="AE28" t="n">
+      <c r="AH28" t="n">
         <v>7.518006153195556</v>
       </c>
-      <c r="AF28" t="n">
+      <c r="AI28" t="n">
         <v>1.790998356298128</v>
       </c>
-      <c r="AG28" t="n">
+      <c r="AJ28" t="n">
         <v>169010022898.0748</v>
       </c>
-      <c r="AH28" t="n">
+      <c r="AK28" t="n">
         <v>8.793176719994408</v>
       </c>
     </row>
@@ -3433,7 +3691,7 @@
         <v>21.38273058405826</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -3478,42 +3736,51 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="n">
+        <v>0</v>
+      </c>
+      <c r="X29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y29" t="n">
         <v>1.260727866934561</v>
       </c>
-      <c r="W29" t="n">
+      <c r="Z29" t="n">
         <v>0.02228482325058787</v>
       </c>
-      <c r="X29" t="n">
+      <c r="AA29" t="n">
         <v>1959.906393596112</v>
       </c>
-      <c r="Y29" t="n">
+      <c r="AB29" t="n">
         <v>205.5474004998221</v>
       </c>
-      <c r="Z29" t="n">
+      <c r="AC29" t="n">
         <v>-8.445387649317791</v>
       </c>
-      <c r="AA29" t="n">
+      <c r="AD29" t="n">
         <v>3.950430836871687</v>
       </c>
-      <c r="AB29" t="n">
+      <c r="AE29" t="n">
         <v>1.595464265394965</v>
       </c>
-      <c r="AC29" t="n">
+      <c r="AF29" t="n">
         <v>1.767560387124096</v>
       </c>
-      <c r="AD29" t="n">
+      <c r="AG29" t="n">
         <v>0.1145165596207319</v>
       </c>
-      <c r="AE29" t="n">
+      <c r="AH29" t="n">
         <v>7.381007116271127</v>
       </c>
-      <c r="AF29" t="n">
+      <c r="AI29" t="n">
         <v>1.819845527918998</v>
       </c>
-      <c r="AG29" t="n">
+      <c r="AJ29" t="n">
         <v>168720026226.5782</v>
       </c>
-      <c r="AH29" t="n">
+      <c r="AK29" t="n">
         <v>8.795547743603601</v>
       </c>
     </row>
@@ -3537,7 +3804,7 @@
         <v>20.14303760881047</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -3582,42 +3849,51 @@
         <v>0</v>
       </c>
       <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="n">
+        <v>0</v>
+      </c>
+      <c r="X30" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y30" t="n">
         <v>1.26570683893197</v>
       </c>
-      <c r="W30" t="n">
+      <c r="Z30" t="n">
         <v>0.02454863183177548</v>
       </c>
-      <c r="X30" t="n">
+      <c r="AA30" t="n">
         <v>1972.708284622537</v>
       </c>
-      <c r="Y30" t="n">
+      <c r="AB30" t="n">
         <v>205.4238452246254</v>
       </c>
-      <c r="Z30" t="n">
+      <c r="AC30" t="n">
         <v>-9.400566039014628</v>
       </c>
-      <c r="AA30" t="n">
+      <c r="AD30" t="n">
         <v>4.210868617073017</v>
       </c>
-      <c r="AB30" t="n">
+      <c r="AE30" t="n">
         <v>1.585198532199634</v>
       </c>
-      <c r="AC30" t="n">
+      <c r="AF30" t="n">
         <v>1.758800451016517</v>
       </c>
-      <c r="AD30" t="n">
+      <c r="AG30" t="n">
         <v>0.1158126030842472</v>
       </c>
-      <c r="AE30" t="n">
+      <c r="AH30" t="n">
         <v>7.206008121170524</v>
       </c>
-      <c r="AF30" t="n">
+      <c r="AI30" t="n">
         <v>1.851908077816022</v>
       </c>
-      <c r="AG30" t="n">
+      <c r="AJ30" t="n">
         <v>168270030108.8744</v>
       </c>
-      <c r="AH30" t="n">
+      <c r="AK30" t="n">
         <v>8.79245007004322</v>
       </c>
     </row>
@@ -3641,7 +3917,7 @@
         <v>17.40569026676706</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3686,42 +3962,51 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="n">
+        <v>0</v>
+      </c>
+      <c r="X31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y31" t="n">
         <v>1.272317814241079</v>
       </c>
-      <c r="W31" t="n">
+      <c r="Z31" t="n">
         <v>0.0263122210094939</v>
       </c>
-      <c r="X31" t="n">
+      <c r="AA31" t="n">
         <v>1996.018182329822</v>
       </c>
-      <c r="Y31" t="n">
+      <c r="AB31" t="n">
         <v>204.3350323668456</v>
       </c>
-      <c r="Z31" t="n">
+      <c r="AC31" t="n">
         <v>-10.26690109409375</v>
       </c>
-      <c r="AA31" t="n">
+      <c r="AD31" t="n">
         <v>4.280894831932676</v>
       </c>
-      <c r="AB31" t="n">
+      <c r="AE31" t="n">
         <v>1.524315747362138</v>
       </c>
-      <c r="AC31" t="n">
+      <c r="AF31" t="n">
         <v>1.744190510514416</v>
       </c>
-      <c r="AD31" t="n">
+      <c r="AG31" t="n">
         <v>0.1166076940783801</v>
       </c>
-      <c r="AE31" t="n">
+      <c r="AH31" t="n">
         <v>6.943009032238373</v>
       </c>
-      <c r="AF31" t="n">
+      <c r="AI31" t="n">
         <v>1.876633591906829</v>
       </c>
-      <c r="AG31" t="n">
+      <c r="AJ31" t="n">
         <v>167430033916.5197</v>
       </c>
-      <c r="AH31" t="n">
+      <c r="AK31" t="n">
         <v>8.746155264331254</v>
       </c>
     </row>
@@ -3745,7 +4030,7 @@
         <v>19.98854070866711</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3790,42 +4075,51 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="n">
+        <v>0</v>
+      </c>
+      <c r="X32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y32" t="n">
         <v>1.247676145869709</v>
       </c>
-      <c r="W32" t="n">
+      <c r="Z32" t="n">
         <v>0.008566019586497754</v>
       </c>
-      <c r="X32" t="n">
+      <c r="AA32" t="n">
         <v>1897.621190235474</v>
       </c>
-      <c r="Y32" t="n">
+      <c r="AB32" t="n">
         <v>202.9179009191996</v>
       </c>
-      <c r="Z32" t="n">
+      <c r="AC32" t="n">
         <v>-5.800481554136178</v>
       </c>
-      <c r="AA32" t="n">
+      <c r="AD32" t="n">
         <v>2.27930703979673</v>
       </c>
-      <c r="AB32" t="n">
+      <c r="AE32" t="n">
         <v>1.257507279391273</v>
       </c>
-      <c r="AC32" t="n">
+      <c r="AF32" t="n">
         <v>1.808439556985178</v>
       </c>
-      <c r="AD32" t="n">
+      <c r="AG32" t="n">
         <v>0.1108617678693528</v>
       </c>
-      <c r="AE32" t="n">
+      <c r="AH32" t="n">
         <v>8.199764655737777</v>
       </c>
-      <c r="AF32" t="n">
+      <c r="AI32" t="n">
         <v>1.776641881013283</v>
       </c>
-      <c r="AG32" t="n">
+      <c r="AJ32" t="n">
         <v>171299761014.9509</v>
       </c>
-      <c r="AH32" t="n">
+      <c r="AK32" t="n">
         <v>8.849558541524697</v>
       </c>
     </row>
@@ -3849,7 +4143,7 @@
         <v>22.66978129713433</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -3894,42 +4188,51 @@
         <v>0</v>
       </c>
       <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="n">
+        <v>0</v>
+      </c>
+      <c r="X33" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y33" t="n">
         <v>1.248393647670592</v>
       </c>
-      <c r="W33" t="n">
+      <c r="Z33" t="n">
         <v>0.01036064175944686</v>
       </c>
-      <c r="X33" t="n">
+      <c r="AA33" t="n">
         <v>1905.097087069187</v>
       </c>
-      <c r="Y33" t="n">
+      <c r="AB33" t="n">
         <v>202.3916837047695</v>
       </c>
-      <c r="Z33" t="n">
+      <c r="AC33" t="n">
         <v>-5.85886554401904</v>
       </c>
-      <c r="AA33" t="n">
+      <c r="AD33" t="n">
         <v>2.491981492592446</v>
       </c>
-      <c r="AB33" t="n">
+      <c r="AE33" t="n">
         <v>1.332578695185133</v>
       </c>
-      <c r="AC33" t="n">
+      <c r="AF33" t="n">
         <v>1.8029913396147</v>
       </c>
-      <c r="AD33" t="n">
+      <c r="AG33" t="n">
         <v>0.1103115814015882</v>
       </c>
-      <c r="AE33" t="n">
+      <c r="AH33" t="n">
         <v>8.081161501386102</v>
       </c>
-      <c r="AF33" t="n">
+      <c r="AI33" t="n">
         <v>1.761331860689984</v>
       </c>
-      <c r="AG33" t="n">
+      <c r="AJ33" t="n">
         <v>170827599928.467</v>
       </c>
-      <c r="AH33" t="n">
+      <c r="AK33" t="n">
         <v>8.757814316774983</v>
       </c>
     </row>
@@ -3953,7 +4256,7 @@
         <v>24.99931615692724</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3998,42 +4301,51 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="n">
+        <v>0</v>
+      </c>
+      <c r="X34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y34" t="n">
         <v>1.249394565549059</v>
       </c>
-      <c r="W34" t="n">
+      <c r="Z34" t="n">
         <v>0.012344214750709</v>
       </c>
-      <c r="X34" t="n">
+      <c r="AA34" t="n">
         <v>1911.898709881221</v>
       </c>
-      <c r="Y34" t="n">
+      <c r="AB34" t="n">
         <v>201.8513654154837</v>
       </c>
-      <c r="Z34" t="n">
+      <c r="AC34" t="n">
         <v>-6.006684608604087</v>
       </c>
-      <c r="AA34" t="n">
+      <c r="AD34" t="n">
         <v>2.708179346868279</v>
       </c>
-      <c r="AB34" t="n">
+      <c r="AE34" t="n">
         <v>1.393040103099158</v>
       </c>
-      <c r="AC34" t="n">
+      <c r="AF34" t="n">
         <v>1.797942312517661</v>
       </c>
-      <c r="AD34" t="n">
+      <c r="AG34" t="n">
         <v>0.1099112261261503</v>
       </c>
-      <c r="AE34" t="n">
+      <c r="AH34" t="n">
         <v>7.970834057980905</v>
       </c>
-      <c r="AF34" t="n">
+      <c r="AI34" t="n">
         <v>1.750566724381643</v>
       </c>
-      <c r="AG34" t="n">
+      <c r="AJ34" t="n">
         <v>170403617132.52</v>
       </c>
-      <c r="AH34" t="n">
+      <c r="AK34" t="n">
         <v>8.658061436577492</v>
       </c>
     </row>
@@ -4057,7 +4369,7 @@
         <v>26.97742936213018</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -4102,42 +4414,51 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="n">
+        <v>0</v>
+      </c>
+      <c r="X35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y35" t="n">
         <v>1.250573075572645</v>
       </c>
-      <c r="W35" t="n">
+      <c r="Z35" t="n">
         <v>0.01418521204955677</v>
       </c>
-      <c r="X35" t="n">
+      <c r="AA35" t="n">
         <v>1916.811957036233</v>
       </c>
-      <c r="Y35" t="n">
+      <c r="AB35" t="n">
         <v>200.6854530347005</v>
       </c>
-      <c r="Z35" t="n">
+      <c r="AC35" t="n">
         <v>-6.146681806464256</v>
       </c>
-      <c r="AA35" t="n">
+      <c r="AD35" t="n">
         <v>2.902884288543087</v>
       </c>
-      <c r="AB35" t="n">
+      <c r="AE35" t="n">
         <v>1.452757244638761</v>
       </c>
-      <c r="AC35" t="n">
+      <c r="AF35" t="n">
         <v>1.793936080674891</v>
       </c>
-      <c r="AD35" t="n">
+      <c r="AG35" t="n">
         <v>0.1092494887804315</v>
       </c>
-      <c r="AE35" t="n">
+      <c r="AH35" t="n">
         <v>7.874542671126813</v>
       </c>
-      <c r="AF35" t="n">
+      <c r="AI35" t="n">
         <v>1.73385480300109</v>
       </c>
-      <c r="AG35" t="n">
+      <c r="AJ35" t="n">
         <v>170098990838.1434</v>
       </c>
-      <c r="AH35" t="n">
+      <c r="AK35" t="n">
         <v>8.555599891056172</v>
       </c>
     </row>
@@ -4161,7 +4482,7 @@
         <v>28.45739495895693</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -4206,42 +4527,51 @@
         <v>0</v>
       </c>
       <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="n">
+        <v>0</v>
+      </c>
+      <c r="X36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y36" t="n">
         <v>1.252819696996072</v>
       </c>
-      <c r="W36" t="n">
+      <c r="Z36" t="n">
         <v>0.01694679017591566</v>
       </c>
-      <c r="X36" t="n">
+      <c r="AA36" t="n">
         <v>1923.625797364443</v>
       </c>
-      <c r="Y36" t="n">
+      <c r="AB36" t="n">
         <v>200.2132860757897</v>
       </c>
-      <c r="Z36" t="n">
+      <c r="AC36" t="n">
         <v>-6.630033104643922</v>
       </c>
-      <c r="AA36" t="n">
+      <c r="AD36" t="n">
         <v>3.217820549080928</v>
       </c>
-      <c r="AB36" t="n">
+      <c r="AE36" t="n">
         <v>1.511259196584403</v>
       </c>
-      <c r="AC36" t="n">
+      <c r="AF36" t="n">
         <v>1.788631841635493</v>
       </c>
-      <c r="AD36" t="n">
+      <c r="AG36" t="n">
         <v>0.1094601217675729</v>
       </c>
-      <c r="AE36" t="n">
+      <c r="AH36" t="n">
         <v>7.754103958109233</v>
       </c>
-      <c r="AF36" t="n">
+      <c r="AI36" t="n">
         <v>1.738245853511176</v>
       </c>
-      <c r="AG36" t="n">
+      <c r="AJ36" t="n">
         <v>169742125057.9652</v>
       </c>
-      <c r="AH36" t="n">
+      <c r="AK36" t="n">
         <v>8.470230905416077</v>
       </c>
     </row>
@@ -4265,7 +4595,7 @@
         <v>28.2601934085426</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -4310,42 +4640,51 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="n">
+        <v>0</v>
+      </c>
+      <c r="X37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y37" t="n">
         <v>1.255784683415825</v>
       </c>
-      <c r="W37" t="n">
+      <c r="Z37" t="n">
         <v>0.01963301928393181</v>
       </c>
-      <c r="X37" t="n">
+      <c r="AA37" t="n">
         <v>1930.774237201092</v>
       </c>
-      <c r="Y37" t="n">
+      <c r="AB37" t="n">
         <v>200.7775764176031</v>
       </c>
-      <c r="Z37" t="n">
+      <c r="AC37" t="n">
         <v>-7.380245868076038</v>
       </c>
-      <c r="AA37" t="n">
+      <c r="AD37" t="n">
         <v>3.574758067651902</v>
       </c>
-      <c r="AB37" t="n">
+      <c r="AE37" t="n">
         <v>1.557524575072925</v>
       </c>
-      <c r="AC37" t="n">
+      <c r="AF37" t="n">
         <v>1.783433778585651</v>
       </c>
-      <c r="AD37" t="n">
+      <c r="AG37" t="n">
         <v>0.11074013793582</v>
       </c>
-      <c r="AE37" t="n">
+      <c r="AH37" t="n">
         <v>7.641648082414911</v>
       </c>
-      <c r="AF37" t="n">
+      <c r="AI37" t="n">
         <v>1.766586163140941</v>
       </c>
-      <c r="AG37" t="n">
+      <c r="AJ37" t="n">
         <v>169479504001.6554</v>
       </c>
-      <c r="AH37" t="n">
+      <c r="AK37" t="n">
         <v>8.473557256367712</v>
       </c>
     </row>
@@ -4369,7 +4708,7 @@
         <v>27.05971472917415</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -4414,42 +4753,51 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="n">
+        <v>0</v>
+      </c>
+      <c r="X38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y38" t="n">
         <v>1.260044912013324</v>
       </c>
-      <c r="W38" t="n">
+      <c r="Z38" t="n">
         <v>0.02245309065805883</v>
       </c>
-      <c r="X38" t="n">
+      <c r="AA38" t="n">
         <v>1944.953305282164</v>
       </c>
-      <c r="Y38" t="n">
+      <c r="AB38" t="n">
         <v>202.49025398537</v>
       </c>
-      <c r="Z38" t="n">
+      <c r="AC38" t="n">
         <v>-8.355341251072577</v>
       </c>
-      <c r="AA38" t="n">
+      <c r="AD38" t="n">
         <v>3.93106600766422</v>
       </c>
-      <c r="AB38" t="n">
+      <c r="AE38" t="n">
         <v>1.583542405201738</v>
       </c>
-      <c r="AC38" t="n">
+      <c r="AF38" t="n">
         <v>1.774214624518093</v>
       </c>
-      <c r="AD38" t="n">
+      <c r="AG38" t="n">
         <v>0.1128356394466005</v>
       </c>
-      <c r="AE38" t="n">
+      <c r="AH38" t="n">
         <v>7.464471954108268</v>
       </c>
-      <c r="AF38" t="n">
+      <c r="AI38" t="n">
         <v>1.808246739198791</v>
       </c>
-      <c r="AG38" t="n">
+      <c r="AJ38" t="n">
         <v>168968997006.4286</v>
       </c>
-      <c r="AH38" t="n">
+      <c r="AK38" t="n">
         <v>8.503552123044699</v>
       </c>
     </row>
@@ -4473,7 +4821,7 @@
         <v>25.85685450580792</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -4518,42 +4866,51 @@
         <v>0</v>
       </c>
       <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="n">
+        <v>0</v>
+      </c>
+      <c r="X39" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y39" t="n">
         <v>1.265149837663633</v>
       </c>
-      <c r="W39" t="n">
+      <c r="Z39" t="n">
         <v>0.02483558032496455</v>
       </c>
-      <c r="X39" t="n">
+      <c r="AA39" t="n">
         <v>1962.728241765781</v>
       </c>
-      <c r="Y39" t="n">
+      <c r="AB39" t="n">
         <v>203.4303336446212</v>
       </c>
-      <c r="Z39" t="n">
+      <c r="AC39" t="n">
         <v>-9.254378399258577</v>
       </c>
-      <c r="AA39" t="n">
+      <c r="AD39" t="n">
         <v>4.148474671533263</v>
       </c>
-      <c r="AB39" t="n">
+      <c r="AE39" t="n">
         <v>1.572295016359378</v>
       </c>
-      <c r="AC39" t="n">
+      <c r="AF39" t="n">
         <v>1.762710472935636</v>
       </c>
-      <c r="AD39" t="n">
+      <c r="AG39" t="n">
         <v>0.1144174451287428</v>
       </c>
-      <c r="AE39" t="n">
+      <c r="AH39" t="n">
         <v>7.248008452390431</v>
       </c>
-      <c r="AF39" t="n">
+      <c r="AI39" t="n">
         <v>1.839699758319143</v>
       </c>
-      <c r="AG39" t="n">
+      <c r="AJ39" t="n">
         <v>168290031475.4306</v>
       </c>
-      <c r="AH39" t="n">
+      <c r="AK39" t="n">
         <v>8.472070279141068</v>
       </c>
     </row>
@@ -4577,7 +4934,7 @@
         <v>22.37130821812226</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -4622,42 +4979,51 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="n">
+        <v>0</v>
+      </c>
+      <c r="X40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y40" t="n">
         <v>1.271661474802908</v>
       </c>
-      <c r="W40" t="n">
+      <c r="Z40" t="n">
         <v>0.02657561079415277</v>
       </c>
-      <c r="X40" t="n">
+      <c r="AA40" t="n">
         <v>1988.910059053566</v>
       </c>
-      <c r="Y40" t="n">
+      <c r="AB40" t="n">
         <v>203.4545760606128</v>
       </c>
-      <c r="Z40" t="n">
+      <c r="AC40" t="n">
         <v>-10.05679304918149</v>
       </c>
-      <c r="AA40" t="n">
+      <c r="AD40" t="n">
         <v>4.208527457410115</v>
       </c>
-      <c r="AB40" t="n">
+      <c r="AE40" t="n">
         <v>1.520310964285919</v>
       </c>
-      <c r="AC40" t="n">
+      <c r="AF40" t="n">
         <v>1.746827353115558</v>
       </c>
-      <c r="AD40" t="n">
+      <c r="AG40" t="n">
         <v>0.1155759789044927</v>
       </c>
-      <c r="AE40" t="n">
+      <c r="AH40" t="n">
         <v>6.969979221797368</v>
       </c>
-      <c r="AF40" t="n">
+      <c r="AI40" t="n">
         <v>1.864558427256117</v>
       </c>
-      <c r="AG40" t="n">
+      <c r="AJ40" t="n">
         <v>167377411936.9126</v>
       </c>
-      <c r="AH40" t="n">
+      <c r="AK40" t="n">
         <v>8.449867252264818</v>
       </c>
     </row>
@@ -4681,7 +5047,7 @@
         <v>25.62575899506358</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -4726,42 +5092,51 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="n">
+        <v>0</v>
+      </c>
+      <c r="X41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y41" t="n">
         <v>1.24707466077033</v>
       </c>
-      <c r="W41" t="n">
+      <c r="Z41" t="n">
         <v>0.008507891478836599</v>
       </c>
-      <c r="X41" t="n">
+      <c r="AA41" t="n">
         <v>1867.919171167016</v>
       </c>
-      <c r="Y41" t="n">
+      <c r="AB41" t="n">
         <v>187.7993244726015</v>
       </c>
-      <c r="Z41" t="n">
+      <c r="AC41" t="n">
         <v>-5.257912465764135</v>
       </c>
-      <c r="AA41" t="n">
+      <c r="AD41" t="n">
         <v>2.216760354195323</v>
       </c>
-      <c r="AB41" t="n">
+      <c r="AE41" t="n">
         <v>1.242363342024701</v>
       </c>
-      <c r="AC41" t="n">
+      <c r="AF41" t="n">
         <v>1.822962344565947</v>
       </c>
-      <c r="AD41" t="n">
+      <c r="AG41" t="n">
         <v>0.1031690476948415</v>
       </c>
-      <c r="AE41" t="n">
+      <c r="AH41" t="n">
         <v>8.393986354127728</v>
       </c>
-      <c r="AF41" t="n">
+      <c r="AI41" t="n">
         <v>1.680352182589541</v>
       </c>
-      <c r="AG41" t="n">
+      <c r="AJ41" t="n">
         <v>172236349914.7716</v>
       </c>
-      <c r="AH41" t="n">
+      <c r="AK41" t="n">
         <v>8.319048166749699</v>
       </c>
     </row>
@@ -4785,7 +5160,7 @@
         <v>28.71253053669632</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -4830,42 +5205,51 @@
         <v>0</v>
       </c>
       <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="n">
+        <v>0</v>
+      </c>
+      <c r="X42" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y42" t="n">
         <v>1.247735821531945</v>
       </c>
-      <c r="W42" t="n">
+      <c r="Z42" t="n">
         <v>0.01028581222070294</v>
       </c>
-      <c r="X42" t="n">
+      <c r="AA42" t="n">
         <v>1876.686877567568</v>
       </c>
-      <c r="Y42" t="n">
+      <c r="AB42" t="n">
         <v>188.7666259258897</v>
       </c>
-      <c r="Z42" t="n">
+      <c r="AC42" t="n">
         <v>-5.393652669281646</v>
       </c>
-      <c r="AA42" t="n">
+      <c r="AD42" t="n">
         <v>2.424741078083589</v>
       </c>
-      <c r="AB42" t="n">
+      <c r="AE42" t="n">
         <v>1.310628166572769</v>
       </c>
-      <c r="AC42" t="n">
+      <c r="AF42" t="n">
         <v>1.816702580071161</v>
       </c>
-      <c r="AD42" t="n">
+      <c r="AG42" t="n">
         <v>0.1034252887600671</v>
       </c>
-      <c r="AE42" t="n">
+      <c r="AH42" t="n">
         <v>8.261456990793633</v>
       </c>
-      <c r="AF42" t="n">
+      <c r="AI42" t="n">
         <v>1.677742082445482</v>
       </c>
-      <c r="AG42" t="n">
+      <c r="AJ42" t="n">
         <v>171676356137.7358</v>
       </c>
-      <c r="AH42" t="n">
+      <c r="AK42" t="n">
         <v>8.269471042158557</v>
       </c>
     </row>
@@ -4889,7 +5273,7 @@
         <v>32.07472279805049</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -4934,42 +5318,51 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="n">
+        <v>0</v>
+      </c>
+      <c r="X43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y43" t="n">
         <v>1.248413965250835</v>
       </c>
-      <c r="W43" t="n">
+      <c r="Z43" t="n">
         <v>0.01191044539990318</v>
       </c>
-      <c r="X43" t="n">
+      <c r="AA43" t="n">
         <v>1881.898632259195</v>
       </c>
-      <c r="Y43" t="n">
+      <c r="AB43" t="n">
         <v>187.9233110445539</v>
       </c>
-      <c r="Z43" t="n">
+      <c r="AC43" t="n">
         <v>-5.475539643996584</v>
       </c>
-      <c r="AA43" t="n">
+      <c r="AD43" t="n">
         <v>2.580362345859039</v>
       </c>
-      <c r="AB43" t="n">
+      <c r="AE43" t="n">
         <v>1.354976137288964</v>
       </c>
-      <c r="AC43" t="n">
+      <c r="AF43" t="n">
         <v>1.812310246162972</v>
       </c>
-      <c r="AD43" t="n">
+      <c r="AG43" t="n">
         <v>0.1027927881798131</v>
       </c>
-      <c r="AE43" t="n">
+      <c r="AH43" t="n">
         <v>8.158004840712849</v>
       </c>
-      <c r="AF43" t="n">
+      <c r="AI43" t="n">
         <v>1.663440784934284</v>
       </c>
-      <c r="AG43" t="n">
+      <c r="AJ43" t="n">
         <v>171250020927.0052</v>
       </c>
-      <c r="AH43" t="n">
+      <c r="AK43" t="n">
         <v>8.144785181106798</v>
       </c>
     </row>
@@ -4993,7 +5386,7 @@
         <v>34.11667750979019</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -5038,42 +5431,51 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="n">
+        <v>0</v>
+      </c>
+      <c r="X44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y44" t="n">
         <v>1.249968432510453</v>
       </c>
-      <c r="W44" t="n">
+      <c r="Z44" t="n">
         <v>0.01437588774923239</v>
       </c>
-      <c r="X44" t="n">
+      <c r="AA44" t="n">
         <v>1893.08114045645</v>
       </c>
-      <c r="Y44" t="n">
+      <c r="AB44" t="n">
         <v>189.7376273445839</v>
       </c>
-      <c r="Z44" t="n">
+      <c r="AC44" t="n">
         <v>-5.813344109408426</v>
       </c>
-      <c r="AA44" t="n">
+      <c r="AD44" t="n">
         <v>2.843184454249214</v>
       </c>
-      <c r="AB44" t="n">
+      <c r="AE44" t="n">
         <v>1.420639109488114</v>
       </c>
-      <c r="AC44" t="n">
+      <c r="AF44" t="n">
         <v>1.804712621769324</v>
       </c>
-      <c r="AD44" t="n">
+      <c r="AG44" t="n">
         <v>0.1037037815085318</v>
       </c>
-      <c r="AE44" t="n">
+      <c r="AH44" t="n">
         <v>8.003106713105311</v>
       </c>
-      <c r="AF44" t="n">
+      <c r="AI44" t="n">
         <v>1.668436739898998</v>
       </c>
-      <c r="AG44" t="n">
+      <c r="AJ44" t="n">
         <v>170663353019.2518</v>
       </c>
-      <c r="AH44" t="n">
+      <c r="AK44" t="n">
         <v>8.095864169960679</v>
       </c>
     </row>
@@ -5097,7 +5499,7 @@
         <v>34.7703944833379</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -5142,42 +5544,51 @@
         <v>0</v>
       </c>
       <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="n">
+        <v>0</v>
+      </c>
+      <c r="X45" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y45" t="n">
         <v>1.251565819007975</v>
       </c>
-      <c r="W45" t="n">
+      <c r="Z45" t="n">
         <v>0.01636508690484362</v>
       </c>
-      <c r="X45" t="n">
+      <c r="AA45" t="n">
         <v>1899.832188618641</v>
       </c>
-      <c r="Y45" t="n">
+      <c r="AB45" t="n">
         <v>190.8405421359762</v>
       </c>
-      <c r="Z45" t="n">
+      <c r="AC45" t="n">
         <v>-6.20977142533389</v>
       </c>
-      <c r="AA45" t="n">
+      <c r="AD45" t="n">
         <v>3.074135276033425</v>
       </c>
-      <c r="AB45" t="n">
+      <c r="AE45" t="n">
         <v>1.464844713459514</v>
       </c>
-      <c r="AC45" t="n">
+      <c r="AF45" t="n">
         <v>1.80003628428691</v>
       </c>
-      <c r="AD45" t="n">
+      <c r="AG45" t="n">
         <v>0.1046177792341966</v>
       </c>
-      <c r="AE45" t="n">
+      <c r="AH45" t="n">
         <v>7.905624457966276</v>
       </c>
-      <c r="AF45" t="n">
+      <c r="AI45" t="n">
         <v>1.681345683967876</v>
       </c>
-      <c r="AG45" t="n">
+      <c r="AJ45" t="n">
         <v>170353951597.8839</v>
       </c>
-      <c r="AH45" t="n">
+      <c r="AK45" t="n">
         <v>8.079708198551444</v>
       </c>
     </row>
@@ -5201,7 +5612,7 @@
         <v>35.49851681389695</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -5246,42 +5657,51 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="n">
+        <v>0</v>
+      </c>
+      <c r="X46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y46" t="n">
         <v>1.254376893094263</v>
       </c>
-      <c r="W46" t="n">
+      <c r="Z46" t="n">
         <v>0.0191896827390478</v>
       </c>
-      <c r="X46" t="n">
+      <c r="AA46" t="n">
         <v>1910.654673908952</v>
       </c>
-      <c r="Y46" t="n">
+      <c r="AB46" t="n">
         <v>192.7662901791218</v>
       </c>
-      <c r="Z46" t="n">
+      <c r="AC46" t="n">
         <v>-6.903305118339347</v>
       </c>
-      <c r="AA46" t="n">
+      <c r="AD46" t="n">
         <v>3.385756264451662</v>
       </c>
-      <c r="AB46" t="n">
+      <c r="AE46" t="n">
         <v>1.506000674677508</v>
       </c>
-      <c r="AC46" t="n">
+      <c r="AF46" t="n">
         <v>1.792606558262317</v>
       </c>
-      <c r="AD46" t="n">
+      <c r="AG46" t="n">
         <v>0.1062875038791731</v>
       </c>
-      <c r="AE46" t="n">
+      <c r="AH46" t="n">
         <v>7.755379741653725</v>
       </c>
-      <c r="AF46" t="n">
+      <c r="AI46" t="n">
         <v>1.708964926708721</v>
       </c>
-      <c r="AG46" t="n">
+      <c r="AJ46" t="n">
         <v>169863065741.8399</v>
       </c>
-      <c r="AH46" t="n">
+      <c r="AK46" t="n">
         <v>8.049337220925224</v>
       </c>
     </row>
@@ -5305,7 +5725,7 @@
         <v>34.57402953972569</v>
       </c>
       <c r="G47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -5350,42 +5770,51 @@
         <v>0</v>
       </c>
       <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="n">
+        <v>0</v>
+      </c>
+      <c r="X47" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y47" t="n">
         <v>1.258089713319128</v>
       </c>
-      <c r="W47" t="n">
+      <c r="Z47" t="n">
         <v>0.02189338298439054</v>
       </c>
-      <c r="X47" t="n">
+      <c r="AA47" t="n">
         <v>1926.343707883425</v>
       </c>
-      <c r="Y47" t="n">
+      <c r="AB47" t="n">
         <v>196.1366974091147</v>
       </c>
-      <c r="Z47" t="n">
+      <c r="AC47" t="n">
         <v>-7.756910706802072</v>
       </c>
-      <c r="AA47" t="n">
+      <c r="AD47" t="n">
         <v>3.685152099967131</v>
       </c>
-      <c r="AB47" t="n">
+      <c r="AE47" t="n">
         <v>1.53588222983177</v>
       </c>
-      <c r="AC47" t="n">
+      <c r="AF47" t="n">
         <v>1.7827214853914</v>
       </c>
-      <c r="AD47" t="n">
+      <c r="AG47" t="n">
         <v>0.1088674692067119</v>
       </c>
-      <c r="AE47" t="n">
+      <c r="AH47" t="n">
         <v>7.571435806041155</v>
       </c>
-      <c r="AF47" t="n">
+      <c r="AI47" t="n">
         <v>1.75020640714038</v>
       </c>
-      <c r="AG47" t="n">
+      <c r="AJ47" t="n">
         <v>169265733685.3582</v>
       </c>
-      <c r="AH47" t="n">
+      <c r="AK47" t="n">
         <v>8.083761718586036</v>
       </c>
     </row>
@@ -5409,7 +5838,7 @@
         <v>31.80374905718253</v>
       </c>
       <c r="G48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -5454,42 +5883,51 @@
         <v>0</v>
       </c>
       <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="n">
+        <v>0</v>
+      </c>
+      <c r="X48" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y48" t="n">
         <v>1.263185845340105</v>
       </c>
-      <c r="W48" t="n">
+      <c r="Z48" t="n">
         <v>0.02448159965019405</v>
       </c>
-      <c r="X48" t="n">
+      <c r="AA48" t="n">
         <v>1946.634242887593</v>
       </c>
-      <c r="Y48" t="n">
+      <c r="AB48" t="n">
         <v>199.9966288200791</v>
       </c>
-      <c r="Z48" t="n">
+      <c r="AC48" t="n">
         <v>-8.836556432845189</v>
       </c>
-      <c r="AA48" t="n">
+      <c r="AD48" t="n">
         <v>3.98512376413086</v>
       </c>
-      <c r="AB48" t="n">
+      <c r="AE48" t="n">
         <v>1.544466822159056</v>
       </c>
-      <c r="AC48" t="n">
+      <c r="AF48" t="n">
         <v>1.770400469324317</v>
       </c>
-      <c r="AD48" t="n">
+      <c r="AG48" t="n">
         <v>0.1121063326852014</v>
       </c>
-      <c r="AE48" t="n">
+      <c r="AH48" t="n">
         <v>7.35300836193232</v>
       </c>
-      <c r="AF48" t="n">
+      <c r="AI48" t="n">
         <v>1.807868654562343</v>
       </c>
-      <c r="AG48" t="n">
+      <c r="AJ48" t="n">
         <v>168580031318.9011</v>
       </c>
-      <c r="AH48" t="n">
+      <c r="AK48" t="n">
         <v>8.17212676407148</v>
       </c>
     </row>
@@ -5513,7 +5951,7 @@
         <v>28.56230771361227</v>
       </c>
       <c r="G49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -5558,42 +5996,51 @@
         <v>0</v>
       </c>
       <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="n">
+        <v>0</v>
+      </c>
+      <c r="X49" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y49" t="n">
         <v>1.269466818313764</v>
       </c>
-      <c r="W49" t="n">
+      <c r="Z49" t="n">
         <v>0.02649459707389467</v>
       </c>
-      <c r="X49" t="n">
+      <c r="AA49" t="n">
         <v>1973.61614011654</v>
       </c>
-      <c r="Y49" t="n">
+      <c r="AB49" t="n">
         <v>201.9000236884305</v>
       </c>
-      <c r="Z49" t="n">
+      <c r="AC49" t="n">
         <v>-9.670845930577535</v>
       </c>
-      <c r="AA49" t="n">
+      <c r="AD49" t="n">
         <v>4.07492129189003</v>
       </c>
-      <c r="AB49" t="n">
+      <c r="AE49" t="n">
         <v>1.5077283588901</v>
       </c>
-      <c r="AC49" t="n">
+      <c r="AF49" t="n">
         <v>1.754110526220482</v>
       </c>
-      <c r="AD49" t="n">
+      <c r="AG49" t="n">
         <v>0.1140263505147821</v>
       </c>
-      <c r="AE49" t="n">
+      <c r="AH49" t="n">
         <v>7.069009195888641</v>
       </c>
-      <c r="AF49" t="n">
+      <c r="AI49" t="n">
         <v>1.83963038187937</v>
       </c>
-      <c r="AG49" t="n">
+      <c r="AJ49" t="n">
         <v>167620034266.2606</v>
       </c>
-      <c r="AH49" t="n">
+      <c r="AK49" t="n">
         <v>8.156941935781898</v>
       </c>
     </row>
@@ -5617,7 +6064,7 @@
         <v>31.955266335004</v>
       </c>
       <c r="G50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -5662,42 +6109,51 @@
         <v>0</v>
       </c>
       <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="n">
+        <v>0</v>
+      </c>
+      <c r="X50" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y50" t="n">
         <v>1.246524222809515</v>
       </c>
-      <c r="W50" t="n">
+      <c r="Z50" t="n">
         <v>0.008524648703393672</v>
       </c>
-      <c r="X50" t="n">
+      <c r="AA50" t="n">
         <v>1846.272545685177</v>
       </c>
-      <c r="Y50" t="n">
+      <c r="AB50" t="n">
         <v>170.8080796379526</v>
       </c>
-      <c r="Z50" t="n">
+      <c r="AC50" t="n">
         <v>-4.695566914187652</v>
       </c>
-      <c r="AA50" t="n">
+      <c r="AD50" t="n">
         <v>2.107839898040813</v>
       </c>
-      <c r="AB50" t="n">
+      <c r="AE50" t="n">
         <v>1.209328142136611</v>
       </c>
-      <c r="AC50" t="n">
+      <c r="AF50" t="n">
         <v>1.832773832763979</v>
       </c>
-      <c r="AD50" t="n">
+      <c r="AG50" t="n">
         <v>0.09462329425104581</v>
       </c>
-      <c r="AE50" t="n">
+      <c r="AH50" t="n">
         <v>8.507250822496923</v>
       </c>
-      <c r="AF50" t="n">
+      <c r="AI50" t="n">
         <v>1.573795593513147</v>
       </c>
-      <c r="AG50" t="n">
+      <c r="AJ50" t="n">
         <v>172773633629.736</v>
       </c>
-      <c r="AH50" t="n">
+      <c r="AK50" t="n">
         <v>7.747464233729255</v>
       </c>
     </row>
@@ -5721,7 +6177,7 @@
         <v>36.25298454947284</v>
       </c>
       <c r="G51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -5766,42 +6222,51 @@
         <v>0</v>
       </c>
       <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="n">
+        <v>0</v>
+      </c>
+      <c r="X51" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y51" t="n">
         <v>1.246888067537148</v>
       </c>
-      <c r="W51" t="n">
+      <c r="Z51" t="n">
         <v>0.009898400495977816</v>
       </c>
-      <c r="X51" t="n">
+      <c r="AA51" t="n">
         <v>1854.016781116445</v>
       </c>
-      <c r="Y51" t="n">
+      <c r="AB51" t="n">
         <v>171.5937577197249</v>
       </c>
-      <c r="Z51" t="n">
+      <c r="AC51" t="n">
         <v>-4.755627433442676</v>
       </c>
-      <c r="AA51" t="n">
+      <c r="AD51" t="n">
         <v>2.232646291671722</v>
       </c>
-      <c r="AB51" t="n">
+      <c r="AE51" t="n">
         <v>1.251002503964812</v>
       </c>
-      <c r="AC51" t="n">
+      <c r="AF51" t="n">
         <v>1.826799902610325</v>
       </c>
-      <c r="AD51" t="n">
+      <c r="AG51" t="n">
         <v>0.0946469617677734</v>
       </c>
-      <c r="AE51" t="n">
+      <c r="AH51" t="n">
         <v>8.37534205395248</v>
       </c>
-      <c r="AF51" t="n">
+      <c r="AI51" t="n">
         <v>1.566358912207558</v>
       </c>
-      <c r="AG51" t="n">
+      <c r="AJ51" t="n">
         <v>172171237490.923</v>
       </c>
-      <c r="AH51" t="n">
+      <c r="AK51" t="n">
         <v>7.666953645404841</v>
       </c>
     </row>
@@ -5825,7 +6290,7 @@
         <v>39.46698576313111</v>
       </c>
       <c r="G52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -5870,42 +6335,51 @@
         <v>0</v>
       </c>
       <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="n">
+        <v>0</v>
+      </c>
+      <c r="X52" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y52" t="n">
         <v>1.247569940799276</v>
       </c>
-      <c r="W52" t="n">
+      <c r="Z52" t="n">
         <v>0.01153428793331254</v>
       </c>
-      <c r="X52" t="n">
+      <c r="AA52" t="n">
         <v>1862.551033935211</v>
       </c>
-      <c r="Y52" t="n">
+      <c r="AB52" t="n">
         <v>173.2091301653272</v>
       </c>
-      <c r="Z52" t="n">
+      <c r="AC52" t="n">
         <v>-4.88158083592252</v>
       </c>
-      <c r="AA52" t="n">
+      <c r="AD52" t="n">
         <v>2.384318166868989</v>
       </c>
-      <c r="AB52" t="n">
+      <c r="AE52" t="n">
         <v>1.29797872032946</v>
       </c>
-      <c r="AC52" t="n">
+      <c r="AF52" t="n">
         <v>1.820632418539521</v>
       </c>
-      <c r="AD52" t="n">
+      <c r="AG52" t="n">
         <v>0.09514057253013519</v>
       </c>
-      <c r="AE52" t="n">
+      <c r="AH52" t="n">
         <v>8.243977808992604</v>
       </c>
-      <c r="AF52" t="n">
+      <c r="AI52" t="n">
         <v>1.56253851661835</v>
       </c>
-      <c r="AG52" t="n">
+      <c r="AJ52" t="n">
         <v>171613504252.1894</v>
       </c>
-      <c r="AH52" t="n">
+      <c r="AK52" t="n">
         <v>7.601632161313656</v>
       </c>
     </row>
@@ -5929,7 +6403,7 @@
         <v>41.98982728856968</v>
       </c>
       <c r="G53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -5974,42 +6448,51 @@
         <v>0</v>
       </c>
       <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="n">
+        <v>0</v>
+      </c>
+      <c r="X53" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y53" t="n">
         <v>1.248584733325329</v>
       </c>
-      <c r="W53" t="n">
+      <c r="Z53" t="n">
         <v>0.01341592102649342</v>
       </c>
-      <c r="X53" t="n">
+      <c r="AA53" t="n">
         <v>1871.117079682994</v>
       </c>
-      <c r="Y53" t="n">
+      <c r="AB53" t="n">
         <v>175.054495340387</v>
       </c>
-      <c r="Z53" t="n">
+      <c r="AC53" t="n">
         <v>-5.094607412119695</v>
       </c>
-      <c r="AA53" t="n">
+      <c r="AD53" t="n">
         <v>2.553648511153528</v>
       </c>
-      <c r="AB53" t="n">
+      <c r="AE53" t="n">
         <v>1.337695851132492</v>
       </c>
-      <c r="AC53" t="n">
+      <c r="AF53" t="n">
         <v>1.814565611555818</v>
       </c>
-      <c r="AD53" t="n">
+      <c r="AG53" t="n">
         <v>0.09590565287288243</v>
       </c>
-      <c r="AE53" t="n">
+      <c r="AH53" t="n">
         <v>8.117139947316225</v>
       </c>
-      <c r="AF53" t="n">
+      <c r="AI53" t="n">
         <v>1.563622683394275</v>
       </c>
-      <c r="AG53" t="n">
+      <c r="AJ53" t="n">
         <v>171099350150.2065</v>
       </c>
-      <c r="AH53" t="n">
+      <c r="AK53" t="n">
         <v>7.535177650529689</v>
       </c>
     </row>
@@ -6033,7 +6516,7 @@
         <v>42.98984531257391</v>
       </c>
       <c r="G54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -6078,42 +6561,51 @@
         <v>0</v>
       </c>
       <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="n">
+        <v>0</v>
+      </c>
+      <c r="X54" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y54" t="n">
         <v>1.250275657445612</v>
       </c>
-      <c r="W54" t="n">
+      <c r="Z54" t="n">
         <v>0.01577012536901089</v>
       </c>
-      <c r="X54" t="n">
+      <c r="AA54" t="n">
         <v>1880.12145242609</v>
       </c>
-      <c r="Y54" t="n">
+      <c r="AB54" t="n">
         <v>177.9141184344477</v>
       </c>
-      <c r="Z54" t="n">
+      <c r="AC54" t="n">
         <v>-5.553610400770518</v>
       </c>
-      <c r="AA54" t="n">
+      <c r="AD54" t="n">
         <v>2.803999283779848</v>
       </c>
-      <c r="AB54" t="n">
+      <c r="AE54" t="n">
         <v>1.382440517763257</v>
       </c>
-      <c r="AC54" t="n">
+      <c r="AF54" t="n">
         <v>1.808516717759012</v>
       </c>
-      <c r="AD54" t="n">
+      <c r="AG54" t="n">
         <v>0.09766035552823919</v>
       </c>
-      <c r="AE54" t="n">
+      <c r="AH54" t="n">
         <v>7.996106447225936</v>
       </c>
-      <c r="AF54" t="n">
+      <c r="AI54" t="n">
         <v>1.585852574764236</v>
       </c>
-      <c r="AG54" t="n">
+      <c r="AJ54" t="n">
         <v>170666821497.062</v>
       </c>
-      <c r="AH54" t="n">
+      <c r="AK54" t="n">
         <v>7.527833166123323</v>
       </c>
     </row>
@@ -6137,7 +6629,7 @@
         <v>43.00098293334803</v>
       </c>
       <c r="G55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -6182,42 +6674,51 @@
         <v>0</v>
       </c>
       <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="n">
+        <v>0</v>
+      </c>
+      <c r="X55" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y55" t="n">
         <v>1.25280818204679</v>
       </c>
-      <c r="W55" t="n">
+      <c r="Z55" t="n">
         <v>0.01848385614829882</v>
       </c>
-      <c r="X55" t="n">
+      <c r="AA55" t="n">
         <v>1893.076058268235</v>
       </c>
-      <c r="Y55" t="n">
+      <c r="AB55" t="n">
         <v>182.6443132933177</v>
       </c>
-      <c r="Z55" t="n">
+      <c r="AC55" t="n">
         <v>-6.248715095657459</v>
       </c>
-      <c r="AA55" t="n">
+      <c r="AD55" t="n">
         <v>3.094698933333548</v>
       </c>
-      <c r="AB55" t="n">
+      <c r="AE55" t="n">
         <v>1.424823687620025</v>
       </c>
-      <c r="AC55" t="n">
+      <c r="AF55" t="n">
         <v>1.800324546517451</v>
       </c>
-      <c r="AD55" t="n">
+      <c r="AG55" t="n">
         <v>0.1006115564545703</v>
       </c>
-      <c r="AE55" t="n">
+      <c r="AH55" t="n">
         <v>7.843196229766979</v>
       </c>
-      <c r="AF55" t="n">
+      <c r="AI55" t="n">
         <v>1.628060337163876</v>
       </c>
-      <c r="AG55" t="n">
+      <c r="AJ55" t="n">
         <v>170123109789.4715</v>
       </c>
-      <c r="AH55" t="n">
+      <c r="AK55" t="n">
         <v>7.566700998160723</v>
       </c>
     </row>
@@ -6241,7 +6742,7 @@
         <v>42.34524027814411</v>
       </c>
       <c r="G56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -6286,42 +6787,51 @@
         <v>0</v>
       </c>
       <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="n">
+        <v>0</v>
+      </c>
+      <c r="X56" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y56" t="n">
         <v>1.256208284217531</v>
       </c>
-      <c r="W56" t="n">
+      <c r="Z56" t="n">
         <v>0.02125130812168904</v>
       </c>
-      <c r="X56" t="n">
+      <c r="AA56" t="n">
         <v>1908.989907611299</v>
       </c>
-      <c r="Y56" t="n">
+      <c r="AB56" t="n">
         <v>187.670964775407</v>
       </c>
-      <c r="Z56" t="n">
+      <c r="AC56" t="n">
         <v>-7.069840977943866</v>
       </c>
-      <c r="AA56" t="n">
+      <c r="AD56" t="n">
         <v>3.366062893770654</v>
       </c>
-      <c r="AB56" t="n">
+      <c r="AE56" t="n">
         <v>1.456766108478487</v>
       </c>
-      <c r="AC56" t="n">
+      <c r="AF56" t="n">
         <v>1.790385183161939</v>
       </c>
-      <c r="AD56" t="n">
+      <c r="AG56" t="n">
         <v>0.1038551455635262</v>
       </c>
-      <c r="AE56" t="n">
+      <c r="AH56" t="n">
         <v>7.660676504173536</v>
       </c>
-      <c r="AF56" t="n">
+      <c r="AI56" t="n">
         <v>1.675079396390057</v>
       </c>
-      <c r="AG56" t="n">
+      <c r="AJ56" t="n">
         <v>169495278543.1471</v>
       </c>
-      <c r="AH56" t="n">
+      <c r="AK56" t="n">
         <v>7.606983313109938</v>
       </c>
     </row>
@@ -6345,7 +6855,7 @@
         <v>38.45487862973193</v>
       </c>
       <c r="G57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -6390,42 +6900,51 @@
         <v>0</v>
       </c>
       <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="n">
+        <v>0</v>
+      </c>
+      <c r="X57" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y57" t="n">
         <v>1.261131934340513</v>
       </c>
-      <c r="W57" t="n">
+      <c r="Z57" t="n">
         <v>0.02400449693372996</v>
       </c>
-      <c r="X57" t="n">
+      <c r="AA57" t="n">
         <v>1929.979449998366</v>
       </c>
-      <c r="Y57" t="n">
+      <c r="AB57" t="n">
         <v>194.4371882608124</v>
       </c>
-      <c r="Z57" t="n">
+      <c r="AC57" t="n">
         <v>-8.275991034454206</v>
       </c>
-      <c r="AA57" t="n">
+      <c r="AD57" t="n">
         <v>3.729059986721321</v>
       </c>
-      <c r="AB57" t="n">
+      <c r="AE57" t="n">
         <v>1.489317538748521</v>
       </c>
-      <c r="AC57" t="n">
+      <c r="AF57" t="n">
         <v>1.778159350448013</v>
       </c>
-      <c r="AD57" t="n">
+      <c r="AG57" t="n">
         <v>0.1086521028178588</v>
       </c>
-      <c r="AE57" t="n">
+      <c r="AH57" t="n">
         <v>7.4530799256397</v>
       </c>
-      <c r="AF57" t="n">
+      <c r="AI57" t="n">
         <v>1.756216562098084</v>
       </c>
-      <c r="AG57" t="n">
+      <c r="AJ57" t="n">
         <v>168853342432.1047</v>
       </c>
-      <c r="AH57" t="n">
+      <c r="AK57" t="n">
         <v>7.801438972644412</v>
       </c>
     </row>
@@ -6449,7 +6968,7 @@
         <v>35.18856403137909</v>
       </c>
       <c r="G58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -6494,42 +7013,51 @@
         <v>0</v>
       </c>
       <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="n">
+        <v>0</v>
+      </c>
+      <c r="X58" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y58" t="n">
         <v>1.266173725426206</v>
       </c>
-      <c r="W58" t="n">
+      <c r="Z58" t="n">
         <v>0.02594333157851257</v>
       </c>
-      <c r="X58" t="n">
+      <c r="AA58" t="n">
         <v>1953.986573703783</v>
       </c>
-      <c r="Y58" t="n">
+      <c r="AB58" t="n">
         <v>198.616617261091</v>
       </c>
-      <c r="Z58" t="n">
+      <c r="AC58" t="n">
         <v>-9.077197628991373</v>
       </c>
-      <c r="AA58" t="n">
+      <c r="AD58" t="n">
         <v>3.870282831681509</v>
       </c>
-      <c r="AB58" t="n">
+      <c r="AE58" t="n">
         <v>1.481462522327195</v>
       </c>
-      <c r="AC58" t="n">
+      <c r="AF58" t="n">
         <v>1.764040084011349</v>
       </c>
-      <c r="AD58" t="n">
+      <c r="AG58" t="n">
         <v>0.1115022151849252</v>
       </c>
-      <c r="AE58" t="n">
+      <c r="AH58" t="n">
         <v>7.213081016683704</v>
       </c>
-      <c r="AF58" t="n">
+      <c r="AI58" t="n">
         <v>1.798619170472427</v>
       </c>
-      <c r="AG58" t="n">
+      <c r="AJ58" t="n">
         <v>168027216700.1495</v>
       </c>
-      <c r="AH58" t="n">
+      <c r="AK58" t="n">
         <v>7.85676096159764</v>
       </c>
     </row>
@@ -6553,7 +7081,7 @@
         <v>44.19370623599561</v>
       </c>
       <c r="G59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -6598,42 +7126,51 @@
         <v>0</v>
       </c>
       <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="n">
+        <v>0</v>
+      </c>
+      <c r="X59" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y59" t="n">
         <v>1.246020479648963</v>
       </c>
-      <c r="W59" t="n">
+      <c r="Z59" t="n">
         <v>0.00928888578869254</v>
       </c>
-      <c r="X59" t="n">
+      <c r="AA59" t="n">
         <v>1837.330360600257</v>
       </c>
-      <c r="Y59" t="n">
+      <c r="AB59" t="n">
         <v>153.0926174873323</v>
       </c>
-      <c r="Z59" t="n">
+      <c r="AC59" t="n">
         <v>-4.074293103811113</v>
       </c>
-      <c r="AA59" t="n">
+      <c r="AD59" t="n">
         <v>1.975075122204047</v>
       </c>
-      <c r="AB59" t="n">
+      <c r="AE59" t="n">
         <v>1.178537533277097</v>
       </c>
-      <c r="AC59" t="n">
+      <c r="AF59" t="n">
         <v>1.833434512164884</v>
       </c>
-      <c r="AD59" t="n">
+      <c r="AG59" t="n">
         <v>0.085208538623865</v>
       </c>
-      <c r="AE59" t="n">
+      <c r="AH59" t="n">
         <v>8.428318530860157</v>
       </c>
-      <c r="AF59" t="n">
+      <c r="AI59" t="n">
         <v>1.443223188672166</v>
       </c>
-      <c r="AG59" t="n">
+      <c r="AJ59" t="n">
         <v>172387541625.5226</v>
       </c>
-      <c r="AH59" t="n">
+      <c r="AK59" t="n">
         <v>7.05043805899807</v>
       </c>
     </row>
@@ -6657,7 +7194,7 @@
         <v>47.81119367858242</v>
       </c>
       <c r="G60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -6702,42 +7239,51 @@
         <v>0</v>
       </c>
       <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="n">
+        <v>0</v>
+      </c>
+      <c r="X60" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y60" t="n">
         <v>1.246529423348192</v>
       </c>
-      <c r="W60" t="n">
+      <c r="Z60" t="n">
         <v>0.01077194909482404</v>
       </c>
-      <c r="X60" t="n">
+      <c r="AA60" t="n">
         <v>1844.741043380766</v>
       </c>
-      <c r="Y60" t="n">
+      <c r="AB60" t="n">
         <v>154.7330818478221</v>
       </c>
-      <c r="Z60" t="n">
+      <c r="AC60" t="n">
         <v>-4.150795648274896</v>
       </c>
-      <c r="AA60" t="n">
+      <c r="AD60" t="n">
         <v>2.089305045642474</v>
       </c>
-      <c r="AB60" t="n">
+      <c r="AE60" t="n">
         <v>1.207989973148353</v>
       </c>
-      <c r="AC60" t="n">
+      <c r="AF60" t="n">
         <v>1.827825420316554</v>
       </c>
-      <c r="AD60" t="n">
+      <c r="AG60" t="n">
         <v>0.08561763989952682</v>
       </c>
-      <c r="AE60" t="n">
+      <c r="AH60" t="n">
         <v>8.305073713874853</v>
       </c>
-      <c r="AF60" t="n">
+      <c r="AI60" t="n">
         <v>1.435206246068864</v>
       </c>
-      <c r="AG60" t="n">
+      <c r="AJ60" t="n">
         <v>171850833667.6566</v>
       </c>
-      <c r="AH60" t="n">
+      <c r="AK60" t="n">
         <v>6.962709652947318</v>
       </c>
     </row>
@@ -6761,7 +7307,7 @@
         <v>50.68483659986167</v>
       </c>
       <c r="G61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -6806,42 +7352,51 @@
         <v>0</v>
       </c>
       <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="n">
+        <v>0</v>
+      </c>
+      <c r="X61" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y61" t="n">
         <v>1.247487356684702</v>
       </c>
-      <c r="W61" t="n">
+      <c r="Z61" t="n">
         <v>0.01280630052358277</v>
       </c>
-      <c r="X61" t="n">
+      <c r="AA61" t="n">
         <v>1852.464863777393</v>
       </c>
-      <c r="Y61" t="n">
+      <c r="AB61" t="n">
         <v>157.1333705875763</v>
       </c>
-      <c r="Z61" t="n">
+      <c r="AC61" t="n">
         <v>-4.386967334146581</v>
       </c>
-      <c r="AA61" t="n">
+      <c r="AD61" t="n">
         <v>2.261855747730037</v>
       </c>
-      <c r="AB61" t="n">
+      <c r="AE61" t="n">
         <v>1.230139841054468</v>
       </c>
-      <c r="AC61" t="n">
+      <c r="AF61" t="n">
         <v>1.822150509872718</v>
       </c>
-      <c r="AD61" t="n">
+      <c r="AG61" t="n">
         <v>0.08670334630068648</v>
       </c>
-      <c r="AE61" t="n">
+      <c r="AH61" t="n">
         <v>8.184515153933971</v>
       </c>
-      <c r="AF61" t="n">
+      <c r="AI61" t="n">
         <v>1.440701447435493</v>
       </c>
-      <c r="AG61" t="n">
+      <c r="AJ61" t="n">
         <v>171344825990.9626</v>
       </c>
-      <c r="AH61" t="n">
+      <c r="AK61" t="n">
         <v>6.881934976746153</v>
       </c>
     </row>
@@ -6865,7 +7420,7 @@
         <v>51.98289014051719</v>
       </c>
       <c r="G62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -6910,42 +7465,51 @@
         <v>0</v>
       </c>
       <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="n">
+        <v>0</v>
+      </c>
+      <c r="X62" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y62" t="n">
         <v>1.248862876767431</v>
       </c>
-      <c r="W62" t="n">
+      <c r="Z62" t="n">
         <v>0.01494677785333209</v>
       </c>
-      <c r="X62" t="n">
+      <c r="AA62" t="n">
         <v>1860.594616197084</v>
       </c>
-      <c r="Y62" t="n">
+      <c r="AB62" t="n">
         <v>160.696793859055</v>
       </c>
-      <c r="Z62" t="n">
+      <c r="AC62" t="n">
         <v>-4.765279264875988</v>
       </c>
-      <c r="AA62" t="n">
+      <c r="AD62" t="n">
         <v>2.462418236358437</v>
       </c>
-      <c r="AB62" t="n">
+      <c r="AE62" t="n">
         <v>1.262894126979707</v>
       </c>
-      <c r="AC62" t="n">
+      <c r="AF62" t="n">
         <v>1.816627920005161</v>
       </c>
-      <c r="AD62" t="n">
+      <c r="AG62" t="n">
         <v>0.08865105920433146</v>
       </c>
-      <c r="AE62" t="n">
+      <c r="AH62" t="n">
         <v>8.073390133792643</v>
       </c>
-      <c r="AF62" t="n">
+      <c r="AI62" t="n">
         <v>1.46150075471212</v>
       </c>
-      <c r="AG62" t="n">
+      <c r="AJ62" t="n">
         <v>170927834388.922</v>
       </c>
-      <c r="AH62" t="n">
+      <c r="AK62" t="n">
         <v>6.866555507618274</v>
       </c>
     </row>
@@ -6969,7 +7533,7 @@
         <v>51.94951100896699</v>
       </c>
       <c r="G63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -7014,42 +7578,51 @@
         <v>0</v>
       </c>
       <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="n">
+        <v>0</v>
+      </c>
+      <c r="X63" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y63" t="n">
         <v>1.250837576548809</v>
       </c>
-      <c r="W63" t="n">
+      <c r="Z63" t="n">
         <v>0.01729911014883283</v>
       </c>
-      <c r="X63" t="n">
+      <c r="AA63" t="n">
         <v>1874.029642408154</v>
       </c>
-      <c r="Y63" t="n">
+      <c r="AB63" t="n">
         <v>167.8175178700633</v>
       </c>
-      <c r="Z63" t="n">
+      <c r="AC63" t="n">
         <v>-5.321252883817218</v>
       </c>
-      <c r="AA63" t="n">
+      <c r="AD63" t="n">
         <v>2.681645229983931</v>
       </c>
-      <c r="AB63" t="n">
+      <c r="AE63" t="n">
         <v>1.303434434902022</v>
       </c>
-      <c r="AC63" t="n">
+      <c r="AF63" t="n">
         <v>1.808449675767793</v>
       </c>
-      <c r="AD63" t="n">
+      <c r="AG63" t="n">
         <v>0.09237292649470105</v>
       </c>
-      <c r="AE63" t="n">
+      <c r="AH63" t="n">
         <v>7.926771215371812</v>
       </c>
-      <c r="AF63" t="n">
+      <c r="AI63" t="n">
         <v>1.504955413538558</v>
       </c>
-      <c r="AG63" t="n">
+      <c r="AJ63" t="n">
         <v>170362694818.3197</v>
       </c>
-      <c r="AH63" t="n">
+      <c r="AK63" t="n">
         <v>6.936502580693285</v>
       </c>
     </row>
@@ -7073,7 +7646,7 @@
         <v>50.28323396706536</v>
       </c>
       <c r="G64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -7118,42 +7691,51 @@
         <v>0</v>
       </c>
       <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="n">
+        <v>0</v>
+      </c>
+      <c r="X64" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y64" t="n">
         <v>1.253543670285972</v>
       </c>
-      <c r="W64" t="n">
+      <c r="Z64" t="n">
         <v>0.0197819759602175</v>
       </c>
-      <c r="X64" t="n">
+      <c r="AA64" t="n">
         <v>1887.474318449066</v>
       </c>
-      <c r="Y64" t="n">
+      <c r="AB64" t="n">
         <v>174.86616120799</v>
       </c>
-      <c r="Z64" t="n">
+      <c r="AC64" t="n">
         <v>-6.102646067594978</v>
       </c>
-      <c r="AA64" t="n">
+      <c r="AD64" t="n">
         <v>2.955205171612477</v>
       </c>
-      <c r="AB64" t="n">
+      <c r="AE64" t="n">
         <v>1.351827116480805</v>
       </c>
-      <c r="AC64" t="n">
+      <c r="AF64" t="n">
         <v>1.800516486041945</v>
       </c>
-      <c r="AD64" t="n">
+      <c r="AG64" t="n">
         <v>0.09661363133992923</v>
       </c>
-      <c r="AE64" t="n">
+      <c r="AH64" t="n">
         <v>7.788642662460981</v>
       </c>
-      <c r="AF64" t="n">
+      <c r="AI64" t="n">
         <v>1.566132504295834</v>
       </c>
-      <c r="AG64" t="n">
+      <c r="AJ64" t="n">
         <v>169906995685.9447</v>
       </c>
-      <c r="AH64" t="n">
+      <c r="AK64" t="n">
         <v>7.076467006043415</v>
       </c>
     </row>
@@ -7177,7 +7759,7 @@
         <v>47.58155541121904</v>
       </c>
       <c r="G65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -7222,42 +7804,51 @@
         <v>0</v>
       </c>
       <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="n">
+        <v>0</v>
+      </c>
+      <c r="X65" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y65" t="n">
         <v>1.257483229178174</v>
       </c>
-      <c r="W65" t="n">
+      <c r="Z65" t="n">
         <v>0.02254440595620273</v>
       </c>
-      <c r="X65" t="n">
+      <c r="AA65" t="n">
         <v>1906.291522896131</v>
       </c>
-      <c r="Y65" t="n">
+      <c r="AB65" t="n">
         <v>183.1871637021064</v>
       </c>
-      <c r="Z65" t="n">
+      <c r="AC65" t="n">
         <v>-7.123438440574485</v>
       </c>
-      <c r="AA65" t="n">
+      <c r="AD65" t="n">
         <v>3.248814703732137</v>
       </c>
-      <c r="AB65" t="n">
+      <c r="AE65" t="n">
         <v>1.39155119803509</v>
       </c>
-      <c r="AC65" t="n">
+      <c r="AF65" t="n">
         <v>1.789509448269726</v>
       </c>
-      <c r="AD65" t="n">
+      <c r="AG65" t="n">
         <v>0.1017325520107702</v>
       </c>
-      <c r="AE65" t="n">
+      <c r="AH65" t="n">
         <v>7.601146985515955</v>
       </c>
-      <c r="AF65" t="n">
+      <c r="AI65" t="n">
         <v>1.643082641987369</v>
       </c>
-      <c r="AG65" t="n">
+      <c r="AJ65" t="n">
         <v>169281098833.1245</v>
       </c>
-      <c r="AH65" t="n">
+      <c r="AK65" t="n">
         <v>7.244850310788615</v>
       </c>
     </row>
@@ -7281,7 +7872,7 @@
         <v>57.26884951520413</v>
       </c>
       <c r="G66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -7326,42 +7917,51 @@
         <v>0</v>
       </c>
       <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="n">
+        <v>0</v>
+      </c>
+      <c r="X66" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y66" t="n">
         <v>1.24552858740651</v>
       </c>
-      <c r="W66" t="n">
+      <c r="Z66" t="n">
         <v>0.01003585173934054</v>
       </c>
-      <c r="X66" t="n">
+      <c r="AA66" t="n">
         <v>1833.986264729608</v>
       </c>
-      <c r="Y66" t="n">
+      <c r="AB66" t="n">
         <v>136.8129802875061</v>
       </c>
-      <c r="Z66" t="n">
+      <c r="AC66" t="n">
         <v>-3.427111227914911</v>
       </c>
-      <c r="AA66" t="n">
+      <c r="AD66" t="n">
         <v>1.763647178127032</v>
       </c>
-      <c r="AB66" t="n">
+      <c r="AE66" t="n">
         <v>1.084185714244982</v>
       </c>
-      <c r="AC66" t="n">
+      <c r="AF66" t="n">
         <v>1.830757324919477</v>
       </c>
-      <c r="AD66" t="n">
+      <c r="AG66" t="n">
         <v>0.07613994930328609</v>
       </c>
-      <c r="AE66" t="n">
+      <c r="AH66" t="n">
         <v>8.291361982027064</v>
       </c>
-      <c r="AF66" t="n">
+      <c r="AI66" t="n">
         <v>1.300217618327788</v>
       </c>
-      <c r="AG66" t="n">
+      <c r="AJ66" t="n">
         <v>171706357965.1985</v>
       </c>
-      <c r="AH66" t="n">
+      <c r="AK66" t="n">
         <v>6.283066384726687</v>
       </c>
     </row>
@@ -7385,7 +7985,7 @@
         <v>58.99419121339282</v>
       </c>
       <c r="G67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -7430,42 +8030,51 @@
         <v>0</v>
       </c>
       <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="n">
+        <v>0</v>
+      </c>
+      <c r="X67" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y67" t="n">
         <v>1.246278400308863</v>
       </c>
-      <c r="W67" t="n">
+      <c r="Z67" t="n">
         <v>0.01173003225661443</v>
       </c>
-      <c r="X67" t="n">
+      <c r="AA67" t="n">
         <v>1840.681108386071</v>
       </c>
-      <c r="Y67" t="n">
+      <c r="AB67" t="n">
         <v>140.5280332373297</v>
       </c>
-      <c r="Z67" t="n">
+      <c r="AC67" t="n">
         <v>-3.627475654290339</v>
       </c>
-      <c r="AA67" t="n">
+      <c r="AD67" t="n">
         <v>1.915110450879497</v>
       </c>
-      <c r="AB67" t="n">
+      <c r="AE67" t="n">
         <v>1.103428653264932</v>
       </c>
-      <c r="AC67" t="n">
+      <c r="AF67" t="n">
         <v>1.826153801714715</v>
       </c>
-      <c r="AD67" t="n">
+      <c r="AG67" t="n">
         <v>0.07780890107312986</v>
       </c>
-      <c r="AE67" t="n">
+      <c r="AH67" t="n">
         <v>8.198323692241686</v>
       </c>
-      <c r="AF67" t="n">
+      <c r="AI67" t="n">
         <v>1.311314188191988</v>
       </c>
-      <c r="AG67" t="n">
+      <c r="AJ67" t="n">
         <v>171317148560.4731</v>
       </c>
-      <c r="AH67" t="n">
+      <c r="AK67" t="n">
         <v>6.249742847501013</v>
       </c>
     </row>
@@ -7489,7 +8098,7 @@
         <v>60.5617814437541</v>
       </c>
       <c r="G68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -7534,42 +8143,51 @@
         <v>0</v>
       </c>
       <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="n">
+        <v>0</v>
+      </c>
+      <c r="X68" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y68" t="n">
         <v>1.247358868010066</v>
       </c>
-      <c r="W68" t="n">
+      <c r="Z68" t="n">
         <v>0.01368475104839282</v>
       </c>
-      <c r="X68" t="n">
+      <c r="AA68" t="n">
         <v>1848.39382069824</v>
       </c>
-      <c r="Y68" t="n">
+      <c r="AB68" t="n">
         <v>144.6620045330398</v>
       </c>
-      <c r="Z68" t="n">
+      <c r="AC68" t="n">
         <v>-3.896876552343064</v>
       </c>
-      <c r="AA68" t="n">
+      <c r="AD68" t="n">
         <v>2.071344824602268</v>
       </c>
-      <c r="AB68" t="n">
+      <c r="AE68" t="n">
         <v>1.125513918815031</v>
       </c>
-      <c r="AC68" t="n">
+      <c r="AF68" t="n">
         <v>1.820902474989318</v>
       </c>
-      <c r="AD68" t="n">
+      <c r="AG68" t="n">
         <v>0.0797653063906929</v>
       </c>
-      <c r="AE68" t="n">
+      <c r="AH68" t="n">
         <v>8.092631859977038</v>
       </c>
-      <c r="AF68" t="n">
+      <c r="AI68" t="n">
         <v>1.325272966843336</v>
       </c>
-      <c r="AG68" t="n">
+      <c r="AJ68" t="n">
         <v>170899286904.4902</v>
       </c>
-      <c r="AH68" t="n">
+      <c r="AK68" t="n">
         <v>6.210729616776239</v>
       </c>
     </row>
@@ -7593,7 +8211,7 @@
         <v>60.61233470837478</v>
       </c>
       <c r="G69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -7638,42 +8256,51 @@
         <v>0</v>
       </c>
       <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="n">
+        <v>0</v>
+      </c>
+      <c r="X69" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y69" t="n">
         <v>1.248791483338096</v>
       </c>
-      <c r="W69" t="n">
+      <c r="Z69" t="n">
         <v>0.01570200474814384</v>
       </c>
-      <c r="X69" t="n">
+      <c r="AA69" t="n">
         <v>1856.711059409857</v>
       </c>
-      <c r="Y69" t="n">
+      <c r="AB69" t="n">
         <v>150.3613715318763</v>
       </c>
-      <c r="Z69" t="n">
+      <c r="AC69" t="n">
         <v>-4.332508526302171</v>
       </c>
-      <c r="AA69" t="n">
+      <c r="AD69" t="n">
         <v>2.252841032351604</v>
       </c>
-      <c r="AB69" t="n">
+      <c r="AE69" t="n">
         <v>1.154477305115527</v>
       </c>
-      <c r="AC69" t="n">
+      <c r="AF69" t="n">
         <v>1.815732953616396</v>
       </c>
-      <c r="AD69" t="n">
+      <c r="AG69" t="n">
         <v>0.08285264097947474</v>
       </c>
-      <c r="AE69" t="n">
+      <c r="AH69" t="n">
         <v>7.998103918540303</v>
       </c>
-      <c r="AF69" t="n">
+      <c r="AI69" t="n">
         <v>1.363177050146464</v>
       </c>
-      <c r="AG69" t="n">
+      <c r="AJ69" t="n">
         <v>170547182430.0937</v>
       </c>
-      <c r="AH69" t="n">
+      <c r="AK69" t="n">
         <v>6.259591016123628</v>
       </c>
     </row>
@@ -7697,7 +8324,7 @@
         <v>58.29414792800303</v>
       </c>
       <c r="G70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -7742,42 +8369,51 @@
         <v>0</v>
       </c>
       <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="n">
+        <v>0</v>
+      </c>
+      <c r="X70" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y70" t="n">
         <v>1.251499921628221</v>
       </c>
-      <c r="W70" t="n">
+      <c r="Z70" t="n">
         <v>0.0185613151797406</v>
       </c>
-      <c r="X70" t="n">
+      <c r="AA70" t="n">
         <v>1872.051722765793</v>
       </c>
-      <c r="Y70" t="n">
+      <c r="AB70" t="n">
         <v>161.4758871105339</v>
       </c>
-      <c r="Z70" t="n">
+      <c r="AC70" t="n">
         <v>-5.197883260570442</v>
       </c>
-      <c r="AA70" t="n">
+      <c r="AD70" t="n">
         <v>2.550692727383185</v>
       </c>
-      <c r="AB70" t="n">
+      <c r="AE70" t="n">
         <v>1.219775490803851</v>
       </c>
-      <c r="AC70" t="n">
+      <c r="AF70" t="n">
         <v>1.807031476918401</v>
       </c>
-      <c r="AD70" t="n">
+      <c r="AG70" t="n">
         <v>0.0890493703484557</v>
       </c>
-      <c r="AE70" t="n">
+      <c r="AH70" t="n">
         <v>7.854763422370222</v>
       </c>
-      <c r="AF70" t="n">
+      <c r="AI70" t="n">
         <v>1.449190374337418</v>
       </c>
-      <c r="AG70" t="n">
+      <c r="AJ70" t="n">
         <v>170046002507.7759</v>
       </c>
-      <c r="AH70" t="n">
+      <c r="AK70" t="n">
         <v>6.482367494369207</v>
       </c>
     </row>

--- a/01_Dataset_Cleaned/MultiTaskModel_NiCrCoVFe_KW90_wt_pct_processed.xlsx
+++ b/01_Dataset_Cleaned/MultiTaskModel_NiCrCoVFe_KW90_wt_pct_processed.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
